--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1094,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Copia de seguridad y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1151,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad y recuperación ante desastres</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
+          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1178,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1211,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
+          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1228,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1261,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1311,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
+          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1328,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1361,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
+          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1378,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
+          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1461,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
+          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1478,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1511,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1561,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
+          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1578,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1611,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1628,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1661,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1711,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
+          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1761,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
+          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
+          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1828,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1861,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
+          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1878,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1901,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
+          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1928,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1961,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
+          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +1978,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2011,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
+          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2028,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2061,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2090,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2111,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2140,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2161,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2178,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2206,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
+          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2223,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2251,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
+          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2268,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2276,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2297,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2322,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2343,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2360,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2368,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2389,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
+          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2406,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2439,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
+          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2456,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2489,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2506,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2539,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
+          <t>Aplicar un proceso para la gestión de costos</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2556,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2589,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costos</t>
+          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2606,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2639,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2656,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2679,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2706,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2735,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2752,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2760,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2776,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
+          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2798,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2831,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2846,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2873,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2888,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2923,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2952,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +2973,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +2990,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3023,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3040,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3073,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3090,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3123,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3140,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3173,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3190,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3219,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3236,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3244,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3265,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3282,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3310,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3327,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3335,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3356,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3373,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3401,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3418,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3446,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3463,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3491,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3508,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3536,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3553,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3581,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3598,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3643,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3671,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3688,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3716,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3733,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3741,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3752,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3779,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3787,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3943,7 +3908,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Las puertas de enlace de aplicaciones deben implementarse en subredes con prefijos IP iguales o mayores que /26</t>
+          <t>Asegúrese de que está usando la SKU estándar para los equilibradores de carga de Azure</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3960,19 +3925,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3993,14 +3954,10 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para enviar conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad podría estar bien si está administrada por un solo equipo.</t>
-        </is>
-      </c>
+          <t>Las puertas de enlace de aplicaciones deben implementarse en subredes con prefijos IP iguales o mayores que /26</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4014,7 +3971,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
@@ -4026,7 +3983,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,10 +4004,14 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="n"/>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para enviar conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="inlineStr">
+        <is>
+          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad podría estar bien si está administrada por un solo equipo.</t>
+        </is>
+      </c>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4069,14 +4030,14 @@
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4058,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4126,7 +4087,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,7 +4108,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4164,7 +4125,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4137,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4158,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,7 +4175,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
@@ -4226,7 +4187,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4208,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4264,19 +4225,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4258,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4319,14 +4280,14 @@
       </c>
       <c r="I74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4347,13 +4308,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,15 +4325,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4393,7 +4358,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4410,7 +4375,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4418,7 +4383,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4439,7 +4404,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4456,7 +4421,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4464,7 +4429,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4485,13 +4450,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,7 +4467,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4510,7 +4475,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4531,13 +4496,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4548,7 +4513,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4556,7 +4521,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4577,13 +4542,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4594,7 +4559,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4602,7 +4567,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4623,13 +4588,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway en lugar de reglas de salida del equilibrador de carga para una mejor escalabilidad de SNAT</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4640,7 +4605,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4648,7 +4613,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4664,18 +4629,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Use Azure NAT Gateway en lugar de reglas de salida del equilibrador de carga para una mejor escalabilidad de SNAT</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4686,7 +4651,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4694,7 +4659,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4715,13 +4680,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4732,19 +4697,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4760,18 +4721,18 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
+          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4782,19 +4743,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4776,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios de red compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,15 +4793,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,13 +4826,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Asegúrese de que los servicios de red compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4878,7 +4843,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4886,7 +4851,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN en escenarios radiales, use Azure Route Server.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,7 +4889,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4932,7 +4897,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Route Server, utilice un prefijo /27 para la subred de Route Server.</t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN en escenarios radiales, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,7 +4935,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4978,7 +4943,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4999,13 +4964,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales de concentradores para conectar las regiones entre sí. </t>
+          <t>Si utiliza Route Server, utilice un prefijo /27 para la subred de Route Server.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5016,19 +4981,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5049,7 +5010,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales de concentradores para conectar las regiones entre sí. </t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5027,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5099,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5116,15 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5145,13 +5110,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5162,7 +5127,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5170,7 +5135,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5186,18 +5151,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5208,19 +5173,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5241,14 +5202,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5262,7 +5219,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5231,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,10 +5252,14 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5324,7 +5285,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,13 +5306,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,15 +5323,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5391,7 +5356,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
+          <t>Asegúrese de usar circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5408,7 +5373,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5416,7 +5381,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5437,13 +5402,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5454,19 +5419,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5487,7 +5448,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5504,7 +5465,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5516,7 +5477,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5537,7 +5498,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5554,7 +5515,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5566,7 +5527,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5587,7 +5548,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5604,19 +5565,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5637,13 +5598,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5654,19 +5615,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5687,13 +5648,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5704,7 +5665,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5716,7 +5677,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5737,7 +5698,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5754,7 +5715,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5766,7 +5727,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5787,7 +5748,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5804,7 +5765,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5816,7 +5777,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5837,7 +5798,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5854,7 +5815,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5866,7 +5827,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,7 +5848,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5904,15 +5865,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5933,13 +5898,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5950,7 +5915,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5958,7 +5923,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5974,12 +5939,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5996,19 +5961,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6029,13 +5990,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
+          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6058,7 +6019,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6079,13 +6040,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6069,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6129,7 +6090,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6146,19 +6107,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6179,13 +6140,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6196,7 +6157,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
@@ -6208,7 +6169,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6229,7 +6190,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6246,19 +6207,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6279,13 +6240,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6296,14 +6257,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6324,13 +6290,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6341,19 +6307,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6369,18 +6330,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6391,14 +6352,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6419,7 +6385,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6436,7 +6402,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6444,7 +6410,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6465,13 +6431,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6482,19 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6515,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6532,7 +6493,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6544,7 +6505,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6565,13 +6526,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6594,7 +6555,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6615,13 +6576,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6632,19 +6593,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6665,13 +6626,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6682,7 +6643,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
@@ -6694,7 +6655,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6715,13 +6676,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6737,14 +6698,14 @@
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6765,7 +6726,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6782,19 +6743,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6776,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6793,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6826,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6843,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6871,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6929,7 +6895,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6950,7 +6916,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,14 +6933,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,7 +6961,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7012,14 +6978,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7035,12 +7001,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
+          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7057,19 +7023,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7090,13 +7051,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7107,19 +7068,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7140,7 +7101,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7162,14 +7123,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7190,7 +7151,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7212,14 +7173,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,7 +7201,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7269,7 +7230,7 @@
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7285,18 +7246,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7268,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,7 +7301,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7352,14 +7318,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7380,13 +7346,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7397,14 +7363,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7425,7 +7391,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7442,19 +7408,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7475,7 +7436,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7492,19 +7453,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7525,7 +7486,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7540,7 +7501,11 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7550,7 +7515,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7571,7 +7536,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7586,11 +7551,7 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H142" s="15" t="n"/>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7600,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7621,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7643,14 +7604,14 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7666,12 +7627,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7688,19 +7649,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7682,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7738,14 +7699,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7766,13 +7732,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7790,7 +7756,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7811,13 +7777,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7829,18 +7795,13 @@
       <c r="H147" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7822,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7839,19 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7872,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7889,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7917,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7934,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,7 +7962,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8013,14 +7979,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8041,7 +8007,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
+          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8058,14 +8024,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8086,13 +8052,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8069,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,17 +8087,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8114,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8176,13 +8142,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8193,14 +8159,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8211,7 +8177,7 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
@@ -8221,13 +8187,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8238,14 +8204,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8232,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,13 +8277,13 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8328,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8322,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8367,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8463,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,7 +8457,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8508,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,13 +8502,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8553,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,7 +8547,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8598,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8592,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8671,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8716,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8733,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8756,18 +8722,18 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8778,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,13 +8772,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8823,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8817,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8868,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,7 +8862,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8920,7 +8886,7 @@
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8907,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8931,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9003,14 +8969,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9031,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9048,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9076,14 +9042,10 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9097,14 +9059,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,10 +9087,14 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="n"/>
+          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9142,14 +9108,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,7 +9136,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9187,14 +9153,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9215,7 +9181,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9232,14 +9198,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9260,14 +9226,10 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9281,14 +9243,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9304,18 +9266,22 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9292,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,13 +9320,13 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9371,14 +9337,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9365,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9416,14 +9382,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9410,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9434,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9455,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9479,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9500,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9558,7 +9524,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9569,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9607,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9686,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9697,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9759,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9804,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9828,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9844,12 +9810,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9860,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9905,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9950,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10008,7 +9974,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +9995,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10164,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10181,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10209,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10233,7 +10199,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10244,23 +10210,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10271,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10294,12 +10260,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10316,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10344,7 +10310,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10361,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10377,15 +10343,45 @@
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="n"/>
-      <c r="B204" s="21" t="n"/>
-      <c r="C204" s="21" t="n"/>
+      <c r="A204" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B204" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C204" s="21" t="inlineStr">
+        <is>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+        </is>
+      </c>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="n"/>
+      <c r="E204" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G204" s="21" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="n"/>
+      <c r="L204" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
@@ -11808,20 +11804,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -11833,123 +11927,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -8222,17 +8222,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t xml:space="preserve">Resiliencia </t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Aproveche las zonas de disponibilidad para sus máquinas virtuales en las regiones donde son compatibles.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8249,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8267,23 +8267,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t xml:space="preserve">Resiliencia </t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8294,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8312,23 +8312,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t xml:space="preserve">Resiliencia </t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8357,23 +8357,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t xml:space="preserve">Resiliencia </t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Aproveche los conjuntos de Azure Virtual Machine Scale para escalar verticalmente y reducir en función de la carga.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8384,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8429,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8457,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8519,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,13 +8547,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8564,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,13 +8592,13 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8609,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8654,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8699,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8744,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8767,18 +8767,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8789,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8812,12 +8812,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8857,18 +8857,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8879,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8902,12 +8902,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8924,14 +8924,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8952,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8976,7 +8976,7 @@
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9066,7 +9066,7 @@
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,14 +9087,10 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9108,14 +9104,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9136,7 +9132,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9160,7 +9156,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9181,13 +9177,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9198,14 +9194,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9226,7 +9222,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9243,14 +9239,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9271,12 +9267,12 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D180" s="21" t="inlineStr">
         <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
         </is>
       </c>
       <c r="E180" s="21" t="inlineStr">
@@ -9292,14 +9288,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9315,18 +9311,18 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9337,14 +9333,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9360,12 +9356,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9382,14 +9378,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9405,12 +9401,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9427,14 +9423,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9450,15 +9446,19 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="n"/>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9472,14 +9472,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9500,13 +9500,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9517,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9562,14 +9562,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9614,7 +9614,7 @@
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9652,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9704,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9742,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9855,12 +9855,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9900,12 +9900,12 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9945,12 +9945,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9967,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9990,12 +9990,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10012,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10192,14 +10192,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10255,23 +10255,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10282,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10300,7 +10300,7 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
@@ -10310,13 +10310,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10327,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10345,7 +10345,7 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
@@ -10355,13 +10355,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10372,14 +10372,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10388,60 +10388,180 @@
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="n"/>
-      <c r="B205" s="21" t="n"/>
-      <c r="C205" s="21" t="n"/>
+      <c r="A205" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B205" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C205" s="21" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="n"/>
+      <c r="E205" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G205" s="21" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="n"/>
+      <c r="L205" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="n"/>
-      <c r="B206" s="21" t="n"/>
-      <c r="C206" s="21" t="n"/>
+      <c r="A206" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B206" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C206" s="21" t="inlineStr">
+        <is>
+          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+        </is>
+      </c>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="n"/>
+      <c r="E206" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G206" s="21" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="n"/>
+      <c r="L206" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
       <c r="P206" s="25" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="21" t="n"/>
-      <c r="B207" s="21" t="n"/>
-      <c r="C207" s="21" t="n"/>
+      <c r="A207" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B207" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C207" s="21" t="inlineStr">
+        <is>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+        </is>
+      </c>
       <c r="D207" s="21" t="n"/>
-      <c r="E207" s="21" t="n"/>
+      <c r="E207" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G207" s="21" t="n"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
-      <c r="L207" s="25" t="n"/>
+      <c r="L207" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M207" s="25" t="n"/>
       <c r="N207" s="25" t="n"/>
       <c r="O207" s="25" t="n"/>
       <c r="P207" s="25" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" s="21" t="n"/>
-      <c r="B208" s="21" t="n"/>
-      <c r="C208" s="21" t="n"/>
+      <c r="A208" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B208" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C208" s="21" t="inlineStr">
+        <is>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+        </is>
+      </c>
       <c r="D208" s="21" t="n"/>
-      <c r="E208" s="21" t="n"/>
+      <c r="E208" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G208" s="21" t="n"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
-      <c r="L208" s="25" t="n"/>
+      <c r="L208" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M208" s="25" t="n"/>
       <c r="N208" s="25" t="n"/>
       <c r="O208" s="25" t="n"/>
@@ -11928,7 +12048,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11943,7 +12063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -12151,6 +12271,13 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
+          <t>Resiliencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Copia de seguridad y recuperación ante desastres</t>
         </is>
       </c>

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de 3ª parte compatible con Azure.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5156,13 +5156,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t>Considere el límite de rutas por tabla de rutas (400).</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5173,7 +5173,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5181,7 +5181,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5197,18 +5197,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5219,19 +5219,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5252,14 +5248,10 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5273,7 +5265,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5285,7 +5277,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5306,10 +5298,14 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5335,7 +5331,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5356,13 +5352,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5373,15 +5369,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
+          <t>Asegúrese de usar circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5419,7 +5419,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5427,7 +5427,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5448,13 +5448,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5465,19 +5465,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5498,7 +5494,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5515,7 +5511,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5527,7 +5523,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5548,7 +5544,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5565,7 +5561,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5577,7 +5573,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5598,7 +5594,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5615,19 +5611,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5648,13 +5644,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5665,19 +5661,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5698,13 +5694,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5715,7 +5711,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5727,7 +5723,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5748,7 +5744,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5765,7 +5761,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5777,7 +5773,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5798,7 +5794,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5815,7 +5811,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5827,7 +5823,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5848,7 +5844,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5865,7 +5861,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
@@ -5877,7 +5873,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5898,7 +5894,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5915,15 +5911,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5944,13 +5944,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5961,7 +5961,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5969,7 +5969,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5985,12 +5985,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6007,19 +6007,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6040,13 +6036,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
+          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6069,7 +6065,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6090,13 +6086,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6119,7 +6115,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6140,7 +6136,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6157,19 +6153,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6190,13 +6186,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6207,7 +6203,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
@@ -6219,7 +6215,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6240,7 +6236,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6257,19 +6253,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6290,13 +6286,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6307,14 +6303,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6335,13 +6336,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6352,19 +6353,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6380,18 +6376,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6402,15 +6398,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6448,14 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6476,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6493,19 +6493,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6526,13 +6522,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6543,7 +6539,7 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
@@ -6555,7 +6551,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6576,13 +6572,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6605,7 +6601,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6626,13 +6622,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6643,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6676,13 +6672,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6693,7 +6689,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6705,7 +6701,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6726,13 +6722,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6748,14 +6744,14 @@
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6776,7 +6772,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6793,19 +6789,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6826,7 +6822,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6843,14 +6839,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6871,7 +6872,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6888,14 +6889,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6916,7 +6917,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6940,7 +6941,7 @@
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6961,7 +6962,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6978,14 +6979,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7006,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7023,14 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7046,12 +7047,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
+          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7068,19 +7069,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7101,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7118,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7151,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7173,14 +7169,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7201,7 +7197,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7223,14 +7219,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7251,7 +7247,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7280,7 +7276,7 @@
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7296,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7318,14 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7346,7 +7347,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7363,14 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7391,13 +7392,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7408,14 +7409,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7436,7 +7437,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7453,19 +7454,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7486,7 +7482,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7503,19 +7499,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7536,7 +7532,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7551,7 +7547,11 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7561,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7597,11 +7597,7 @@
         </is>
       </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H143" s="15" t="n"/>
       <c r="I143" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7611,7 +7607,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7632,7 +7628,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7654,14 +7650,14 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7677,12 +7673,12 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7699,19 +7695,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7732,7 +7728,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7749,14 +7745,19 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7777,13 +7778,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7801,7 +7802,7 @@
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7822,13 +7823,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7840,18 +7841,13 @@
       <c r="H148" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7872,7 +7868,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7889,14 +7885,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7917,7 +7918,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7934,14 +7935,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7962,7 +7963,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7979,14 +7980,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8007,7 +8008,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8024,14 +8025,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8052,7 +8053,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
+          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8069,14 +8070,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8097,13 +8098,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8114,14 +8115,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8132,17 +8133,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8159,14 +8160,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8187,13 +8188,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8204,14 +8205,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8222,23 +8223,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Resiliencia </t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para sus máquinas virtuales en las regiones donde son compatibles.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8249,14 +8250,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8277,7 +8278,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
+          <t>Aproveche las zonas de disponibilidad para sus máquinas virtuales en las regiones donde son compatibles.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8294,14 +8295,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8322,13 +8323,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8340,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8362,12 +8363,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los conjuntos de Azure Virtual Machine Scale para escalar verticalmente y reducir en función de la carga.</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8384,14 +8385,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8402,23 +8403,23 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t xml:space="preserve">Resiliencia </t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Aproveche los conjuntos de Azure Virtual Machine Scale para escalar verticalmente y reducir en función de la carga.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8429,14 +8430,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8458,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8475,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,13 +8503,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8519,14 +8520,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,7 +8548,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8564,14 +8565,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,7 +8593,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8609,14 +8610,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,7 +8638,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8654,14 +8655,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,7 +8683,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8699,14 +8700,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,13 +8728,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8744,14 +8745,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8772,7 +8773,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8789,14 +8790,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8817,7 +8818,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8835,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8862,13 +8863,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8880,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8907,13 +8908,13 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8924,14 +8925,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8947,18 +8948,18 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8969,14 +8970,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8998,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9015,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9043,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9059,14 +9060,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,7 +9088,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9111,7 +9112,7 @@
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9132,7 +9133,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9156,7 +9157,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9177,13 +9178,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9194,14 +9195,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9222,13 +9223,13 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9239,14 +9240,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9267,14 +9268,10 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9288,14 +9285,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9316,10 +9313,14 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9333,14 +9334,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9361,7 +9362,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9378,14 +9379,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9406,7 +9407,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9423,14 +9424,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9451,14 +9452,10 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9472,14 +9469,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9495,18 +9492,22 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
-        </is>
-      </c>
-      <c r="D185" s="21" t="n"/>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D185" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9518,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,13 +9546,13 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9562,14 +9563,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9591,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9607,14 +9608,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9636,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,7 +9660,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9681,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9705,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9726,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9749,7 +9750,7 @@
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9771,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9795,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9816,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9833,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9860,7 +9861,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9878,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9905,7 +9906,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9923,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9950,7 +9951,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9968,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9995,7 +9996,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10019,7 +10020,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10035,12 +10036,12 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10058,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10086,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10103,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10131,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10148,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10176,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10199,7 +10200,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10221,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10238,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10265,7 +10266,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10282,14 +10283,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10310,7 +10311,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10327,14 +10328,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10355,7 +10356,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10372,14 +10373,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10400,7 +10401,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10424,7 +10425,7 @@
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10435,23 +10436,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10462,14 +10463,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10485,12 +10486,12 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10507,14 +10508,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10535,7 +10536,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10552,14 +10553,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10568,15 +10569,45 @@
       <c r="P208" s="25" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" s="21" t="n"/>
-      <c r="B209" s="21" t="n"/>
-      <c r="C209" s="21" t="n"/>
+      <c r="A209" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B209" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C209" s="21" t="inlineStr">
+        <is>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+        </is>
+      </c>
       <c r="D209" s="21" t="n"/>
-      <c r="E209" s="21" t="n"/>
+      <c r="E209" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G209" s="21" t="n"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
-      <c r="L209" s="25" t="n"/>
+      <c r="L209" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M209" s="25" t="n"/>
       <c r="N209" s="25" t="n"/>
       <c r="O209" s="25" t="n"/>
@@ -12048,7 +12079,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F210" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>¿Cuántos inquilinos de Azure AD administra?</t>
+          <t>Use un inquilino de Entra para administrar los recursos de Azure, a menos que tenga un requisito normativo o empresarial claro para los multiinquilinos.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/multitenant/considerations/tenancy-models</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1316,7 +1316,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1362,7 +1362,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1408,7 +1408,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1500,7 +1500,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1546,7 +1546,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1638,7 +1638,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/mca-section-invoice</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -2235,7 +2235,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2281,7 +2281,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2327,12 +2327,12 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
@@ -2473,10 +2473,10 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
@@ -3219,12 +3219,12 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
@@ -3269,12 +3269,12 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
@@ -3319,10 +3319,9 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
@@ -3636,7 +3635,7 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7570,7 +7569,7 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
@@ -9821,7 +9820,7 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
@@ -9866,7 +9865,7 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
@@ -9911,7 +9910,7 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
@@ -9956,7 +9955,7 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
@@ -10001,7 +10000,7 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
@@ -10046,7 +10045,7 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
@@ -10091,7 +10090,7 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
@@ -10136,7 +10135,7 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
@@ -10181,7 +10180,7 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
@@ -10226,7 +10225,7 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
@@ -10271,7 +10270,7 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
@@ -10316,7 +10315,7 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
@@ -11884,13 +11883,13 @@
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Habilite Defender Cloud Security Posture Management para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11901,7 +11900,7 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
@@ -11929,13 +11928,13 @@
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
       <c r="E238" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11946,14 +11945,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11974,13 +11973,13 @@
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11991,14 +11990,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12014,12 +12013,12 @@
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Habilite Endpoint Protection en servidores IaaS.</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12036,14 +12035,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12059,18 +12058,18 @@
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12081,14 +12080,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12104,18 +12103,18 @@
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Cuentas de administrador privilegiadas independientes para las tareas administrativas de Azure.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12126,15 +12125,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12150,18 +12148,18 @@
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>Marco de habilitación de servicios</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12172,14 +12170,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12195,18 +12193,18 @@
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>Marco de habilitación de servicios</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12217,14 +12215,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,45 +12231,135 @@
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="n"/>
-      <c r="B245" s="21" t="n"/>
-      <c r="C245" s="21" t="n"/>
+      <c r="A245" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B245" s="21" t="inlineStr">
+        <is>
+          <t>Acceso privilegiado seguro</t>
+        </is>
+      </c>
+      <c r="C245" s="21" t="inlineStr">
+        <is>
+          <t>Cuentas de administrador privilegiadas independientes para las tareas administrativas de Azure.</t>
+        </is>
+      </c>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="n"/>
+      <c r="E245" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G245" s="21" t="n"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+        </is>
+      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="n"/>
+      <c r="L245" s="25" t="inlineStr">
+        <is>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+        </is>
+      </c>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="n"/>
-      <c r="B246" s="21" t="n"/>
-      <c r="C246" s="21" t="n"/>
+      <c r="A246" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
+          <t>Marco de habilitación de servicios</t>
+        </is>
+      </c>
+      <c r="C246" s="21" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+        </is>
+      </c>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="n"/>
+      <c r="E246" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G246" s="21" t="n"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="n"/>
+      <c r="L246" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="n"/>
-      <c r="B247" s="21" t="n"/>
-      <c r="C247" s="21" t="n"/>
+      <c r="A247" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B247" s="21" t="inlineStr">
+        <is>
+          <t>Marco de habilitación de servicios</t>
+        </is>
+      </c>
+      <c r="C247" s="21" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="n"/>
+      <c r="E247" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G247" s="21" t="n"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="n"/>
+      <c r="L247" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13173,7 +13261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
+          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o un NVA para evitar la exfiltración de datos. Si utiliza Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure AD</t>
+          <t>Inquilinos de Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1105,17 +1105,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure AD</t>
+          <t>Inquilinos de Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que tiene un enfoque de automatización multiinquilino para administrar sus inquilinos de Azure AD</t>
+          <t>Asegúrese de tener un enfoque de automatización multiinquilino para administrar sus inquilinos de Microsoft Entra ID</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1151,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure AD</t>
+          <t>Inquilinos de Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Usar departamentos y cuentas para asignar la estructura de su organización a su jerarquía de inscripción puede ayudar a separar la facturación.</t>
+          <t>Use departamentos y cuentas para asignar la estructura de su organización a su jerarquía de inscripción, lo que puede ayudar a separar la facturación.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cuentas estén configuradas para ser del tipo "Cuenta profesional y educativa"</t>
+          <t>Asegúrese de que las cuentas estén configuradas para ser del tipo "Cuenta profesional o educativa"</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1473,7 +1473,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Habilite los cargos de vista de DA y los cargos de vista de AO en sus inscripciones de EA para los usuarios permitidos con los datos de costo y facturación de revisión de permanentes correctos.</t>
+          <t>Habilite tanto los cargos de vista de DA como los cargos de vista de AO en sus inscripciones de EA para permitir que los usuarios con las permanentes correctas revisen los datos de costo y facturación.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1519,7 +1519,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1611,12 +1611,12 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Contrato de nube de Microsoft</t>
+          <t>Contrato de cliente de Microsoft</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1657,12 +1657,12 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Contrato de nube de Microsoft</t>
+          <t>Contrato de cliente de Microsoft</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
@@ -1703,12 +1703,12 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Contrato de nube de Microsoft</t>
+          <t>Contrato de cliente de Microsoft</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
@@ -1749,12 +1749,12 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Contrato de nube de Microsoft</t>
+          <t>Contrato de cliente de Microsoft</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1795,17 +1795,17 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>ID de Microsoft Entra e identidad híbrida</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use Policy Initiatives para agrupar directivas relacionadas.</t>
+          <t>Uso de identidades administradas en lugar de entidades de servicio para la autenticación en los servicios de Azure</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1822,15 +1822,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1841,17 +1845,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva 'anexar' para aplicar el uso.</t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1872,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1880,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1887,23 +1891,23 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Implementar un acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de la cuenta de todo el inquilino</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1914,15 +1918,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I26" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,17 +1941,17 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Integre los registros de ID de Microsoft Entra con Azure Monitor de plataforma central. Azure Monitor permite una única fuente de información sobre los datos de registro y supervisión en Azure, lo que brinda a las organizaciones opciones nativas en la nube para cumplir con los requisitos relacionados con la recopilación y retención de registros.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1960,14 +1968,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1978,23 +1986,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de políticas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario.</t>
+          <t>Aplique un modelo RBAC que se alinee con su modelo operativo en la nube. Ámbito y asignación entre grupos de administración y suscripciones.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2005,14 +2013,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2023,17 +2036,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Aplicar directivas de acceso condicional de Microsoft Entra ID para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2050,14 +2063,19 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2068,23 +2086,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2113,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2113,24 +2136,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2144,14 +2163,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2162,17 +2186,17 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Aplicar Microsoft Entra ID Privileged Identity Management (PIM) para establecer acceso sin pie y privilegios mínimos</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2189,15 +2213,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2208,23 +2236,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2235,15 +2263,19 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2254,17 +2286,17 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de presupuesto "reales" y "previstas".</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2281,15 +2313,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2305,18 +2341,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Active Directory e identidad híbrida</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Uso de identidades administradas en lugar de entidades de servicio para la autenticación en los servicios de Azure</t>
+          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2327,19 +2363,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2355,12 +2391,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Azure AD</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
+          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2377,15 +2413,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I36" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+        </is>
+      </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2406,13 +2446,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Implementar un acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de la cuenta de todo el inquilino</t>
+          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2423,19 +2463,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2456,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Integre los registros de Azure AD con Azure Monitor de plataforma central. Azure Monitor permite una única fuente de información sobre los datos de registro y supervisión en Azure, lo que brinda a las organizaciones opciones nativas en la nube para cumplir con los requisitos relacionados con la recopilación y retención de registros.</t>
+          <t>Si AD en Windows Server está en uso, ¿los recursos de Azure usan el controlador de dominio correcto?</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2473,15 +2513,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2502,13 +2546,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Aplique un modelo RBAC que se alinee con su modelo operativo en la nube. Ámbito y asignación entre grupos de administración y suscripciones.</t>
+          <t>Considere la posibilidad de usar Microsoft Entra ID Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2519,19 +2563,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2552,13 +2596,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
+          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2569,19 +2613,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2597,18 +2641,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Zonas de aterrizaje</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
+          <t>Configure la segmentación de red de identidad (ADDS) mediante el uso de una red virtual y vuelva al concentrador. Proporcionar autenticación dentro de la zona de aterrizaje de la aplicación (heredada).</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2619,19 +2663,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2647,12 +2691,12 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Zonas de aterrizaje</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
+          <t xml:space="preserve">Use RBAC de Azure para administrar el acceso del plano de datos a los recursos, si es posible. Por ejemplo, operaciones de datos en Key Vault, cuenta de almacenamiento y servicios de base de datos. </t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2669,19 +2713,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2697,12 +2741,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Zonas de aterrizaje</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
+          <t>Use las revisiones de acceso PIM de ID de Microsoft Entra para validar periódicamente los derechos de recursos.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2719,19 +2763,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2742,17 +2782,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Nomenclatura y etiquetado</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
+          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2769,19 +2809,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2792,17 +2828,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
+          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de cuatro niveles.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2819,19 +2855,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2842,17 +2878,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
+          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2869,19 +2905,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2892,17 +2928,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2919,19 +2955,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2942,17 +2978,17 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de conectividad para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2969,19 +3005,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2992,17 +3028,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
+          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3019,19 +3055,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3042,17 +3073,17 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
+          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3069,19 +3100,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3092,17 +3119,17 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
+          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3119,19 +3146,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3142,23 +3165,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
+          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3169,19 +3192,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3192,23 +3211,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Zonas de aterrizaje</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Configure la segmentación de red de identidad (ADDS) mediante el uso de una red virtual y vuelva al concentrador. Proporcionar autenticación dentro de la zona de aterrizaje de la aplicación (heredada).</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las cuotas de suscripción y el impacto que tienen en la provisión de recursos para una suscripción determinada.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3219,19 +3238,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3242,23 +3256,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Zonas de aterrizaje</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use RBAC de Azure para administrar el acceso del plano de datos a los recursos, si es posible. Por ejemplo, operaciones de datos en Keyvault, cuenta de almacenamiento y servicios de base de datos. </t>
+          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3269,19 +3283,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3292,23 +3306,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Zonas de aterrizaje</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use revisiones de acceso PIM de Azure AD para validar periódicamente los derechos de recursos.</t>
+          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3319,14 +3333,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3337,23 +3356,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3364,14 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3382,23 +3406,23 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
+          <t>Aplicar un proceso para la gestión de costos</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3409,14 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3427,17 +3456,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>Si AD en Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración Indentity para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3454,14 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3472,17 +3506,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
+          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3499,14 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3517,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3544,19 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3567,17 +3601,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3592,12 +3626,21 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3608,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos en estado archivado durante un máximo de 7 años.</t>
+          <t>Asegúrese de que está utilizando SKU de Application Gateway v2</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3635,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3658,17 +3701,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Asegúrese de que está usando la SKU estándar para los equilibradores de carga de Azure</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3685,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3708,17 +3747,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t>Las puertas de enlace de aplicaciones deben implementarse en subredes con prefijos IP iguales o mayores que /26</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3735,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3758,20 +3797,24 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="n"/>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para enviar conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="inlineStr">
+        <is>
+          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad podría estar bien si está administrada por un solo equipo.</t>
+        </is>
+      </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3785,19 +3828,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3808,17 +3851,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3835,19 +3878,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3858,17 +3901,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3885,19 +3928,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3908,23 +3951,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3935,15 +3978,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3954,23 +4001,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3981,15 +4028,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4000,23 +4051,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4027,15 +4078,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4046,17 +4101,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de identificador de Microsoft Entra para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4073,15 +4128,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4092,23 +4151,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
+          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4119,7 +4178,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4127,7 +4186,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4138,23 +4197,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4165,7 +4224,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4173,7 +4232,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4184,23 +4243,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4211,7 +4270,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4219,7 +4278,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4230,23 +4289,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4257,7 +4316,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4265,7 +4324,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4276,17 +4335,17 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4303,7 +4362,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4311,7 +4370,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4322,23 +4381,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4349,7 +4408,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4357,7 +4416,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4368,23 +4427,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Compromiso operacional</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Use Azure NAT Gateway en lugar de reglas de salida del equilibrador de carga para una mejor escalabilidad de SNAT</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4395,7 +4454,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4403,7 +4462,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4414,27 +4473,23 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Compromiso operacional</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4445,7 +4500,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4453,7 +4508,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4464,17 +4519,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4491,7 +4546,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4499,7 +4554,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4510,17 +4565,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4537,7 +4592,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4545,7 +4600,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4556,23 +4611,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de 3ª parte compatible con Azure.</t>
+          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4583,15 +4638,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4602,23 +4661,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para sus máquinas virtuales en las regiones donde son compatibles.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4629,15 +4688,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4648,17 +4711,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
+          <t>Asegúrese de que los servicios de red compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también servidores DNS.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4675,7 +4738,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4683,7 +4746,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4694,17 +4757,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4721,7 +4784,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4729,7 +4792,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4740,23 +4803,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los conjuntos de Azure Virtual Machine Scale para escalar verticalmente y reducir en función de la carga.</t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN en escenarios radiales, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4767,7 +4830,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4775,7 +4838,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4791,18 +4854,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Si utiliza Route Server, utilice un prefijo /27 para la subred de Route Server.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4813,7 +4876,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4821,7 +4884,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4837,12 +4900,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales de concentradores para conectar las regiones entre sí. </t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4859,19 +4922,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4887,12 +4950,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que está utilizando SKU de Application Gateway v2</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4909,19 +4972,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4937,12 +5000,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que está usando la SKU estándar para los equilibradores de carga de Azure</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4959,7 +5022,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4967,7 +5030,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4983,12 +5046,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Las puertas de enlace de aplicaciones deben implementarse en subredes con prefijos IP iguales o mayores que /26</t>
+          <t>Considere el límite de rutas por tabla de rutas (400).</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5005,19 +5068,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5033,22 +5092,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para enviar conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad podría estar bien si está administrada por un solo equipo.</t>
-        </is>
-      </c>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5059,19 +5114,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5087,12 +5138,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5109,19 +5160,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5137,15 +5188,19 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5159,19 +5214,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5187,12 +5242,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5209,19 +5264,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5237,12 +5292,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Asegúrese de usar circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5259,19 +5314,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5287,18 +5338,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5309,19 +5360,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5337,12 +5384,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5359,19 +5406,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5387,18 +5434,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5409,15 +5456,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5433,18 +5484,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5455,15 +5506,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5479,18 +5534,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5501,15 +5556,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5525,18 +5584,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5547,15 +5606,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5571,12 +5634,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5593,15 +5656,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5617,18 +5684,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5639,15 +5706,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5663,18 +5734,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway en lugar de reglas de salida del equilibrador de carga para una mejor escalabilidad de SNAT</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5685,15 +5756,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5709,18 +5784,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5731,15 +5806,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5755,18 +5834,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5777,7 +5856,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5785,7 +5864,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5801,18 +5880,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5823,15 +5902,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5847,12 +5930,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5869,19 +5952,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5897,18 +5980,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5919,7 +6002,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
@@ -5931,7 +6014,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5947,12 +6030,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios de red compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5969,14 +6052,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5992,12 +6080,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6014,15 +6102,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6038,18 +6130,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN en escenarios radiales, use Azure Route Server.</t>
+          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6060,15 +6152,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6084,12 +6180,12 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Route Server, utilice un prefijo /27 para la subred de Route Server.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6106,7 +6202,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6114,7 +6210,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6130,18 +6226,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales de concentradores para conectar las regiones entre sí. </t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6152,19 +6248,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6180,12 +6276,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6202,19 +6298,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6230,12 +6321,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6252,14 +6343,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6275,18 +6366,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Considere el límite de rutas por tabla de rutas (400).</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6297,15 +6388,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6321,18 +6416,18 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6343,14 +6438,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6366,18 +6466,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6388,19 +6488,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6416,19 +6516,15 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+        </is>
+      </c>
+      <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -6442,19 +6538,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6470,18 +6566,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6492,19 +6588,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6520,12 +6616,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
+          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6542,15 +6638,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6566,12 +6666,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6588,15 +6688,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6612,18 +6716,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6634,19 +6738,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6662,18 +6762,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6684,19 +6784,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6712,18 +6807,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6734,19 +6829,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6762,18 +6852,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6784,19 +6874,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6812,12 +6897,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
+          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6834,19 +6919,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6862,18 +6942,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6884,19 +6964,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6912,12 +6992,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -6934,19 +7014,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -6962,12 +7042,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -6984,7 +7064,7 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6996,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7012,12 +7092,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7034,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7062,18 +7142,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
+          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o un NVA para evitar la exfiltración de datos. Si utiliza Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7084,14 +7164,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7107,12 +7192,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7129,19 +7214,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7157,18 +7237,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
+          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7179,19 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7207,18 +7282,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7229,19 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7257,18 +7327,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7279,19 +7349,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7307,12 +7377,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7329,19 +7399,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7357,12 +7427,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7377,21 +7447,17 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
+      <c r="H140" s="15" t="n"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7407,18 +7473,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7429,14 +7495,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7452,18 +7523,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7474,19 +7545,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7502,12 +7573,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7524,14 +7595,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7547,12 +7623,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7569,14 +7645,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7592,18 +7668,18 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7614,19 +7690,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7642,12 +7713,12 @@
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7664,7 +7735,7 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7676,7 +7747,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7692,18 +7763,18 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7714,19 +7785,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7742,12 +7808,12 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7764,19 +7830,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7792,18 +7853,18 @@
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7814,19 +7875,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7842,18 +7898,18 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7864,19 +7920,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7892,18 +7943,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7914,19 +7965,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7942,12 +7988,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
+          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7964,14 +8010,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7987,12 +8033,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8009,14 +8055,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8032,18 +8078,18 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8054,14 +8100,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8077,12 +8123,12 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8099,14 +8145,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8122,12 +8168,12 @@
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8144,14 +8190,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8167,12 +8213,12 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8189,19 +8235,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8217,18 +8258,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8239,19 +8280,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8267,18 +8303,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8289,19 +8325,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8348,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8370,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8393,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o un NVA para evitar la exfiltración de datos. Si utiliza Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8389,19 +8415,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8417,18 +8438,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8439,14 +8460,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8462,18 +8483,18 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8484,14 +8505,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8507,12 +8528,12 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8529,14 +8550,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8547,23 +8568,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use Policy Initiatives para agrupar directivas relacionadas.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8574,19 +8595,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8597,17 +8613,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva 'anexar' para aplicar el uso a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8624,19 +8640,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8647,17 +8658,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8672,17 +8683,16 @@
         </is>
       </c>
       <c r="G167" s="21" t="n"/>
-      <c r="H167" s="15" t="n"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H167" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8693,17 +8703,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8720,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8743,17 +8748,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Administre las asignaciones de políticas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8770,19 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8793,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,19 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8843,17 +8838,17 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8888,23 +8883,27 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="n"/>
+          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8915,14 +8914,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8933,17 +8932,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,19 +8959,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,17 +8977,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9010,14 +9004,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9055,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,17 +9072,17 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Aproveche los conjuntos de Azure Virtual Machine Scale para escalar dentro y fuera en función de la carga.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9100,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Configure alertas de presupuesto "reales" y "previstas".</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9145,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9163,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9190,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9208,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
+          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9235,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9280,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9298,17 +9297,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9325,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9343,23 +9342,23 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9370,14 +9369,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9388,23 +9392,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9413,16 +9417,11 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
-        </is>
-      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9433,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos en estado archivado durante un máximo de 7 años.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9460,14 +9459,19 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9478,23 +9482,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9505,14 +9509,19 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9523,23 +9532,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9550,14 +9559,19 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9568,17 +9582,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9595,14 +9609,19 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,17 +9632,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9640,14 +9659,19 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9658,17 +9682,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9685,14 +9709,19 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9703,17 +9732,17 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9730,14 +9759,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9748,17 +9777,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9775,14 +9804,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9793,23 +9822,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de contar con un equipo de plataforma de DevOps multifuncional para crear, administrar y mantener su arquitectura de Azure Landing Zone.</t>
+          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9820,14 +9849,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9838,23 +9867,23 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Objetivo de definir funciones para el equipo de Azure Landing Zone Platform.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9865,14 +9894,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9883,23 +9912,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Intente definir funciones para que los equipos de carga de trabajo de aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9910,14 +9939,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9928,23 +9957,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9955,14 +9984,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9973,17 +10002,17 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10000,14 +10029,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10018,23 +10047,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use los secretos del Almacén de claves para evitar codificar información confidencial, como credenciales (contraseñas de usuario de máquinas virtuales), certificados o claves.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10045,14 +10074,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10063,23 +10092,23 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Implemente la automatización para File &gt; New &gt; Landing Zone para aplicaciones y cargas de trabajo.</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10090,14 +10119,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10108,23 +10137,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y se desarrolla IaC. Microsoft recomienda Git.</t>
+          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10135,14 +10164,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10153,23 +10182,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Cumplimiento operativo</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Siga una estrategia de bifurcación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10180,14 +10209,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,20 +10227,24 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Cumplimiento operativo</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Adopte una estrategia de solicitud de extracción para ayudar a mantener el control de los cambios de código combinados en ramas.</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="n"/>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E201" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -10225,14 +10258,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10243,23 +10276,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Estrategia de desarrollo</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la infraestructura declarativa como herramientas de código como Azure Bicep, plantillas ARM o Terraform para crear y mantener su arquitectura de Azure Landing Zone. Tanto desde la perspectiva de la carga de trabajo de la plataforma como de la aplicación.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10270,14 +10303,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10288,23 +10321,23 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10315,14 +10348,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10333,23 +10366,23 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Nomenclatura y etiquetado</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de 3ª parte compatible con Azure.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10360,14 +10393,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10378,23 +10411,23 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de cuatro niveles.</t>
+          <t>Aproveche las zonas de disponibilidad para sus máquinas virtuales en las regiones donde son compatibles.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10405,19 +10438,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,23 +10456,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10455,19 +10483,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10478,17 +10501,17 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10505,19 +10528,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10528,17 +10546,17 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10555,19 +10573,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10578,17 +10591,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10605,19 +10618,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10628,23 +10636,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10655,14 +10663,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10673,17 +10681,17 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10700,14 +10708,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10718,17 +10726,17 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10745,14 +10753,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10763,23 +10771,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10790,14 +10798,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10808,17 +10816,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10835,14 +10843,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10853,23 +10861,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10880,19 +10888,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10903,23 +10906,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10930,19 +10933,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10953,17 +10951,17 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10980,19 +10978,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11003,23 +10996,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costos</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11030,19 +11023,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11053,17 +11041,17 @@
     <row r="219">
       <c r="A219" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
@@ -11080,19 +11068,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11103,17 +11086,17 @@
     <row r="220">
       <c r="A220" s="21" t="inlineStr">
         <is>
-          <t>Organización de recursos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11130,19 +11113,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11158,12 +11136,12 @@
       </c>
       <c r="B221" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11180,14 +11158,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11203,12 +11181,12 @@
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Use las capacidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
@@ -11225,14 +11203,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11248,18 +11226,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11270,14 +11248,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11293,18 +11271,18 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Habilite Defender Cloud Security Posture Management para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11315,14 +11293,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11338,18 +11316,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11360,14 +11338,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11383,18 +11361,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11405,14 +11383,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11428,18 +11406,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Habilite Endpoint Protection en servidores IaaS.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11450,14 +11428,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11473,12 +11451,12 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
@@ -11495,14 +11473,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11518,12 +11496,12 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11540,14 +11518,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11563,18 +11541,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11585,14 +11563,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11608,18 +11586,18 @@
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -11630,14 +11608,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11653,18 +11631,18 @@
       </c>
       <c r="B232" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Acceso privilegiado seguro</t>
         </is>
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Cuentas de administrador con privilegios independientes para las tareas administrativas de Azure.</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11675,14 +11653,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11698,12 +11676,12 @@
       </c>
       <c r="B233" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
@@ -11720,14 +11698,14 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11743,12 +11721,12 @@
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
@@ -11765,14 +11743,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11783,23 +11761,23 @@
     <row r="235">
       <c r="A235" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Asegúrese de contar con un equipo de plataforma de DevOps multifuncional para crear, administrar y mantener su arquitectura de Azure Landing Zone.</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11810,14 +11788,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11828,23 +11806,23 @@
     <row r="236">
       <c r="A236" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B236" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Objetivo de definir funciones para el equipo de Azure Landing Zone Platform.</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11855,14 +11833,14 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11873,23 +11851,23 @@
     <row r="237">
       <c r="A237" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender Cloud Security Posture Management para todas las suscripciones.</t>
+          <t>Intente definir funciones para que los equipos de carga de trabajo de aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11900,14 +11878,14 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11918,17 +11896,17 @@
     <row r="238">
       <c r="A238" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
+          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
@@ -11945,14 +11923,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11963,23 +11941,23 @@
     <row r="239">
       <c r="A239" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
+          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11990,14 +11968,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12008,17 +11986,17 @@
     <row r="240">
       <c r="A240" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>Habilite Endpoint Protection en servidores IaaS.</t>
+          <t>Use los secretos del Almacén de claves para evitar codificar información confidencial, como credenciales (contraseñas de usuario de máquinas virtuales), certificados o claves.</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12035,14 +12013,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12053,23 +12031,23 @@
     <row r="241">
       <c r="A241" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Implemente la automatización para File &gt; New &gt; Landing Zone para aplicaciones y cargas de trabajo.</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12080,14 +12058,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12098,23 +12076,23 @@
     <row r="242">
       <c r="A242" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y se desarrolla IaC. Microsoft recomienda Git.</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12125,14 +12103,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12143,23 +12121,23 @@
     <row r="243">
       <c r="A243" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Siga una estrategia de bifurcación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12170,14 +12148,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12188,23 +12166,23 @@
     <row r="244">
       <c r="A244" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Adopte una estrategia de solicitud de extracción para ayudar a mantener el control de los cambios de código combinados en ramas.</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12215,14 +12193,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,17 +12211,17 @@
     <row r="245">
       <c r="A245" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B245" s="21" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro</t>
+          <t>Estrategia de desarrollo</t>
         </is>
       </c>
       <c r="C245" s="21" t="inlineStr">
         <is>
-          <t>Cuentas de administrador privilegiadas independientes para las tareas administrativas de Azure.</t>
+          <t>Aproveche la infraestructura declarativa como herramientas de código como Azure Bicep, plantillas ARM o Terraform para crear y mantener su arquitectura de Azure Landing Zone. Tanto desde la perspectiva de la carga de trabajo de la plataforma como de la aplicación.</t>
         </is>
       </c>
       <c r="D245" s="21" t="n"/>
@@ -12260,14 +12238,14 @@
       <c r="G245" s="21" t="n"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
       <c r="L245" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M245" s="25" t="n"/>
@@ -12278,23 +12256,23 @@
     <row r="246">
       <c r="A246" s="21" t="inlineStr">
         <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
           <t>Seguridad</t>
         </is>
       </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>Marco de habilitación de servicios</t>
-        </is>
-      </c>
       <c r="C246" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
         </is>
       </c>
       <c r="D246" s="21" t="n"/>
       <c r="E246" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -12305,14 +12283,14 @@
       <c r="G246" s="21" t="n"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
       <c r="L246" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M246" s="25" t="n"/>
@@ -12321,45 +12299,15 @@
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B247" s="21" t="inlineStr">
-        <is>
-          <t>Marco de habilitación de servicios</t>
-        </is>
-      </c>
-      <c r="C247" s="21" t="inlineStr">
-        <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
-        </is>
-      </c>
+      <c r="A247" s="21" t="n"/>
+      <c r="B247" s="21" t="n"/>
+      <c r="C247" s="21" t="n"/>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E247" s="21" t="n"/>
       <c r="G247" s="21" t="n"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L247" s="25" t="n"/>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13261,7 +13209,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13352,7 +13300,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Inquilino de Azure Billing y Active Directory</t>
+          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -1059,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Use un inquilino de Entra para administrar los recursos de Azure, a menos que tenga un requisito normativo o empresarial claro para los multiinquilinos.</t>
+          <t>Use un inquilino de Entra para administrar los recursos de Azure, a menos que tenga un requisito normativo o empresarial claro para varios inquilinos.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1105,7 +1105,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de tener un enfoque de automatización multiinquilino para administrar sus inquilinos de Microsoft Entra ID</t>
+          <t>Asegúrese de que tiene un enfoque de automatización multiinquilino para administrar los inquilinos de Microsoft Entra ID</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1151,7 +1151,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Aproveche Azure Lighthouse para la administración de varios inquilinos</t>
+          <t>Aprovechamiento de Azure Lighthouse para la administración multiinquilino</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1197,7 +1197,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que Azure Lighthouse se usa para administrar el inquilino por asociado</t>
+          <t>Asegúrese de que el asociado usa Azure Lighthouse para administrar el inquilino</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1243,7 +1243,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Discutir la solicitud de soporte y el proceso de escalamiento con el socio de CSP</t>
+          <t>Analizar la solicitud de soporte técnico y el proceso de escalamiento con el socio de CSP</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1289,7 +1289,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Habilite tanto los cargos de vista de DA como los cargos de vista de AO en sus inscripciones de EA para permitir que los usuarios con las permanentes correctas revisen los datos de costo y facturación.</t>
+          <t>Habilite los cargos de visualización de DA y los cargos de vista de AO en sus inscripciones de EA para permitir que los usuarios con las permanentes correctas revisen los datos de costos y facturación.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1519,7 +1519,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Audite periódicamente las asignaciones de roles para revisar quién tiene acceso a su inscripción en el Contrato Enterprise</t>
+          <t>Audite periódicamente las asignaciones de roles para revisar quién tiene acceso a la inscripción del Contrato Enterprise</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1611,7 +1611,7 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Configurar el acuerdo de notificación de cuenta de facturación correo electrónico de contacto</t>
+          <t>Configurar el correo electrónico de contacto de notificación de la cuenta de facturación del acuerdo</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1657,7 +1657,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Utilice las secciones Perfiles de facturación y Facturas para estructurar la facturación de sus acuerdos para una gestión eficaz de los costes</t>
+          <t>Utilice las secciones Perfiles de facturación y Factura para estructurar la facturación de los acuerdos y lograr una administración eficaz de los costos</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1703,7 +1703,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Plan para reducir los costos de las cargas de trabajo que no son de producción</t>
+          <t>Uso del plan de Azure para reducir los costos de las cargas de trabajo que no son de producción</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1749,7 +1749,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Audite periódicamente las asignaciones de roles RBAC de facturación del acuerdo para revisar quién tiene acceso a su cuenta de facturación de MCA</t>
+          <t>Audite periódicamente las asignaciones de roles de RBAC de facturación del acuerdo para revisar quién tiene acceso a su cuenta de facturación de MCA</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>ID de Microsoft Entra e identidad híbrida</t>
+          <t>Id. de Microsoft Entra e identidad híbrida</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID</t>
+          <t>Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad o recuperación ante desastres</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Implementar un acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de la cuenta de todo el inquilino</t>
+          <t>Implemente un acceso de emergencia o cuentas de emergencia para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Integre los registros de ID de Microsoft Entra con Azure Monitor de plataforma central. Azure Monitor permite una única fuente de información sobre los datos de registro y supervisión en Azure, lo que brinda a las organizaciones opciones nativas en la nube para cumplir con los requisitos relacionados con la recopilación y retención de registros.</t>
+          <t>Integre los registros de identificador de Microsoft Entra con Azure Monitor central de la plataforma. Azure Monitor permite una única fuente de información en torno a los datos de registro y supervisión en Azure, lo que ofrece a las organizaciones opciones nativas en la nube para cumplir los requisitos relacionados con la recopilación y retención de registros.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Aplicar directivas de acceso condicional de Microsoft Entra ID para cualquier usuario con derechos en entornos de Azure</t>
+          <t>Aplicación de directivas de acceso condicional de Microsoft Entra ID para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
+          <t>Aplicación de la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Aplicar Microsoft Entra ID Privileged Identity Management (PIM) para establecer acceso sin pie y privilegios mínimos</t>
+          <t>Aplique la administración de identidades privilegiadas (PIM) de Microsoft Entra ID para establecer el acceso permanente cero y los privilegios mínimos</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
+          <t>Utilice solo el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta de Microsoft</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure-AD si ya existe un sistema de administración de grupos.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
+          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región primaria, ya que este servicio solo se puede proyectar en una suscripción</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Microsoft Entra ID Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
+          <t>Considere la posibilidad de usar Microsoft Entra ID Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o en el entorno local).</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Microsoft Entra ID.</t>
+          <t>Evite el uso de cuentas sincronizadas locales para las asignaciones de roles de identificador de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Configure la segmentación de red de identidad (ADDS) mediante el uso de una red virtual y vuelva al concentrador. Proporcionar autenticación dentro de la zona de aterrizaje de la aplicación (heredada).</t>
+          <t>Configure la segmentación de red de identidad (ADDS) mediante el uso de una red virtual y vuelva a emparejarse con el centro. Proporcionar autenticación dentro de la zona de aterrizaje de la aplicación (heredada).</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use RBAC de Azure para administrar el acceso del plano de datos a los recursos, si es posible. Por ejemplo, operaciones de datos en Key Vault, cuenta de almacenamiento y servicios de base de datos. </t>
+          <t xml:space="preserve">Use Azure RBAC para administrar el acceso del plano de datos a los recursos, si es posible. Por ejemplo, operaciones de datos en Key Vault, cuentas de almacenamiento y servicios de base de datos. </t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Use las revisiones de acceso PIM de ID de Microsoft Entra para validar periódicamente los derechos de recursos.</t>
+          <t>Use las revisiones de acceso PIM de Microsoft Entra ID para validar periódicamente los derechos de recursos.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Aplicación de un grupo de administración de espacio aislado para permitir que los usuarios experimenten inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de conectividad para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de conectividad para hospedar un centro de conectividad de Azure Virtual WAN, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
+          <t>Exija que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización de Azure RBAC en la configuración de la jerarquía del grupo de administración</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Aplique grupos de administración en el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
+          <t>Aplique un proceso para que los propietarios de recursos sean conscientes de sus funciones y responsabilidades, la revisión de acceso, la revisión del presupuesto, el cumplimiento de las políticas y la corrección cuando sea necesario.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las cuotas de suscripción y el impacto que tienen en la provisión de recursos para una suscripción determinada.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las cuotas de suscripción y el impacto que tienen en el aprovisionamiento de recursos para una suscripción determinada.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
+          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Aplique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Aplique un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
+          <t>Asegúrese de que los servicios y las características necesarios estén disponibles en las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración Indentity para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Si AD está en Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración Indentity para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Desarrolle un plan para proteger el contenido de la aplicación de entrega de los radios de carga de trabajo mediante Application Gateway y Azure Front Door.  Puede utilizar la lista de comprobación de entrega de aplicaciones para obtener recomendaciones.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones internas (corp) como externas (en línea).</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que está utilizando SKU de Application Gateway v2</t>
+          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que está usando la SKU estándar para los equilibradores de carga de Azure</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,7 +3728,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3736,7 +3736,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3752,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Las puertas de enlace de aplicaciones deben implementarse en subredes con prefijos IP iguales o mayores que /26</t>
+          <t xml:space="preserve">En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,19 +3802,15 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para enviar conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad podría estar bien si está administrada por un solo equipo.</t>
-        </is>
-      </c>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3828,19 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3856,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3878,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3906,12 +3897,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
+          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3928,19 +3919,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3956,18 +3943,18 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Si necesita el tránsito entre ExpressRoute y puertas de enlace de VPN en escenarios en estrella tipo hub-and-spoke, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,19 +3965,15 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4006,18 +3989,18 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4028,19 +4011,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4056,18 +4035,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t xml:space="preserve">En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí. </t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4078,19 +4057,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4106,12 +4085,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de identificador de Microsoft Entra para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4128,19 +4107,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4156,18 +4135,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
+          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4178,7 +4157,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4186,7 +4165,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4202,18 +4181,18 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4224,7 +4203,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4232,7 +4211,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4248,12 +4227,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4270,7 +4249,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4278,7 +4257,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4294,18 +4273,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4316,15 +4295,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4340,15 +4323,19 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="inlineStr">
+        <is>
+          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4362,15 +4349,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4386,18 +4377,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4408,15 +4399,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,12 +4427,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway en lugar de reglas de salida del equilibrador de carga para una mejor escalabilidad de SNAT</t>
+          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4454,7 +4449,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4462,7 +4457,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,12 +4473,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4500,7 +4495,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4508,7 +4503,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,12 +4519,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4546,15 +4541,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4570,12 +4569,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4592,15 +4591,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4616,18 +4619,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4638,19 +4641,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4666,12 +4669,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
+          <t>Use puertas de enlace de VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resistencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4688,19 +4691,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4716,12 +4719,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios de red compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también servidores DNS.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4738,15 +4741,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4762,12 +4769,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4784,15 +4791,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4808,18 +4819,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN en escenarios radiales, use Azure Route Server.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,15 +4841,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4854,18 +4869,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Route Server, utilice un prefijo /27 para la subred de Route Server.</t>
+          <t>Utilice el Monitor de conexión para supervisar la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4876,15 +4891,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4900,12 +4919,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales de concentradores para conectar las regiones entre sí. </t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4922,19 +4941,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4950,18 +4969,18 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, impleméntelo en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4972,19 +4991,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5000,18 +5015,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
+          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5022,15 +5037,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5046,18 +5065,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Considere el límite de rutas por tabla de rutas (400).</t>
+          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5068,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5092,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5114,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5138,18 +5165,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5160,19 +5187,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5188,19 +5215,15 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5214,19 +5237,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5242,12 +5265,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5264,19 +5287,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5292,18 +5315,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5314,7 +5337,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5322,7 +5345,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5338,12 +5361,12 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
+          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5360,15 +5383,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5384,12 +5411,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5406,19 +5433,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5434,12 +5457,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5456,19 +5479,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5484,18 +5503,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5506,19 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5534,12 +5553,12 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5556,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5584,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5606,19 +5625,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5634,12 +5653,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5656,19 +5675,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5684,18 +5703,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
+          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5706,19 +5725,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5734,18 +5753,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5756,19 +5775,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5784,18 +5803,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5806,19 +5825,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5834,12 +5853,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5856,7 +5875,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5864,7 +5883,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5880,12 +5899,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5902,19 +5921,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5930,18 +5945,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
+          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5952,19 +5967,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5980,12 +5991,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6002,19 +6013,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6030,12 +6037,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6052,19 +6059,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6080,18 +6082,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6102,19 +6104,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6130,12 +6132,12 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6152,19 +6154,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6180,18 +6182,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6202,15 +6204,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6226,18 +6232,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6248,19 +6254,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6276,12 +6282,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6298,14 +6304,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6321,18 +6332,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6343,14 +6354,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6366,12 +6377,12 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6388,19 +6399,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6416,12 +6423,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6438,19 +6445,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6466,18 +6468,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6488,19 +6490,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6516,12 +6518,12 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6538,19 +6540,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6566,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,21 +6588,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6616,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6638,19 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6666,18 +6664,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Habilite los registros de flujo de NSG e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6688,19 +6686,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6716,18 +6714,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
+          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6738,15 +6736,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6762,18 +6764,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6784,14 +6786,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,18 +6809,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
+          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6829,14 +6831,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6852,18 +6854,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6874,14 +6876,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6897,18 +6904,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6919,14 +6926,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6942,18 +6949,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
+          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6964,19 +6971,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6992,12 +6994,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7014,19 +7016,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7042,12 +7039,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7064,19 +7061,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7092,12 +7084,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7114,19 +7106,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7142,18 +7129,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o un NVA para evitar la exfiltración de datos. Si utiliza Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
+          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,19 +7151,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7187,17 +7169,17 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7214,14 +7196,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7232,23 +7214,23 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7259,14 +7241,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7277,17 +7259,17 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7304,14 +7286,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7322,17 +7304,17 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7349,19 +7331,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,17 +7349,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7399,19 +7376,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7422,23 +7394,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7447,17 +7419,16 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7468,17 +7439,17 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7495,19 +7466,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7518,20 +7484,24 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="n"/>
+          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -7545,19 +7515,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7568,17 +7533,17 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7595,19 +7560,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7618,17 +7578,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7645,14 +7605,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7663,17 +7628,17 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7690,14 +7655,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7708,17 +7673,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
+          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7735,19 +7700,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7758,17 +7718,17 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7785,14 +7745,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7803,23 +7763,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7830,14 +7790,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7848,17 +7808,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7875,14 +7835,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7893,17 +7853,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7920,14 +7880,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7938,17 +7898,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7965,14 +7925,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7983,23 +7943,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
+          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8010,14 +7970,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8028,23 +7993,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8053,16 +8018,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8073,17 +8034,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8100,14 +8061,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8118,23 +8084,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8145,14 +8111,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8163,23 +8134,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8190,14 +8161,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8208,23 +8184,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8235,14 +8211,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8253,23 +8234,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8280,14 +8261,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8298,23 +8284,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8325,14 +8311,19 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8343,23 +8334,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8370,14 +8361,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8388,17 +8379,17 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8415,14 +8406,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8433,17 +8424,17 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8460,14 +8451,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8478,23 +8469,23 @@
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8505,14 +8496,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8523,17 +8514,17 @@
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8550,14 +8541,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8568,23 +8559,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use Policy Initiatives para agrupar directivas relacionadas.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8595,14 +8586,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,17 +8604,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva 'anexar' para aplicar el uso a través de Azure Policy.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8640,14 +8631,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8658,17 +8649,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8685,14 +8676,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8703,17 +8694,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8730,14 +8721,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8748,17 +8739,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de políticas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario.</t>
+          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8766,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8784,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8811,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8838,20 +8829,24 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="n"/>
+          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -8865,14 +8860,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,24 +8878,20 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -8914,14 +8905,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8932,17 +8923,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8959,14 +8950,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8977,17 +8968,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9004,19 +8995,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9027,23 +9013,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9054,14 +9040,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,18 +9063,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los conjuntos de Azure Virtual Machine Scale para escalar dentro y fuera en función de la carga.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9099,14 +9085,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9117,17 +9103,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de presupuesto "reales" y "previstas".</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9130,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9148,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9175,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,17 +9193,17 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9234,14 +9220,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,23 +9238,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9279,14 +9265,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9283,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
+          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9310,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9328,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,19 +9355,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9392,17 +9373,17 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9417,11 +9398,16 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,17 +9418,17 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos en estado archivado durante un máximo de 7 años.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,19 +9445,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,17 +9463,17 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9509,19 +9490,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,17 +9508,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9559,19 +9535,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9582,17 +9553,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9609,19 +9580,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9632,17 +9598,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,19 +9625,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9682,17 +9643,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9709,19 +9670,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9732,23 +9688,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9759,14 +9715,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9777,17 +9733,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9804,14 +9760,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9822,17 +9778,17 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
+          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9849,14 +9805,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9867,17 +9823,17 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para un almacenamiento a largo plazo superior a dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9894,14 +9850,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9912,23 +9868,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
+          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9939,14 +9895,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9957,23 +9913,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9984,14 +9940,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10002,23 +9958,23 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
+          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10029,14 +9985,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10047,23 +10003,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Habilite Endpoint Protection en servidores IaaS.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10074,14 +10030,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10092,17 +10048,17 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10119,14 +10075,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10137,17 +10093,17 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10164,14 +10120,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10182,23 +10138,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operativo</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10209,14 +10165,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10227,27 +10183,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operativo</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10258,14 +10210,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10276,23 +10228,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Acceso privilegiado seguro</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Separe las cuentas de administrador con privilegios para las tareas administrativas de Azure.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10303,14 +10255,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10321,17 +10273,17 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10348,14 +10300,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10366,17 +10318,17 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de 3ª parte compatible con Azure.</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10393,14 +10345,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10411,17 +10363,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para sus máquinas virtuales en las regiones donde son compatibles.</t>
+          <t>Asegúrese de que cuenta con un equipo multifuncional de la plataforma DevOps para crear, administrar y mantener la arquitectura de la zona de aterrizaje de Azure.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10438,14 +10390,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10456,23 +10408,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
+          <t>Trate de definir funciones para el equipo de la plataforma de zona de aterrizaje de Azure.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10483,14 +10435,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10501,23 +10453,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
+          <t>Trate de definir funciones para que los equipos de carga de trabajo de las aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10528,14 +10480,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10546,23 +10498,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10573,14 +10525,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10591,17 +10543,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10618,14 +10570,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10636,17 +10588,17 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10663,14 +10615,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10681,23 +10633,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Implemente la automatización de la zona de aterrizaje de archivos &gt; nueva &gt; para aplicaciones y cargas de trabajo.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10708,14 +10660,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10726,23 +10678,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y la IaC desarrollada. Microsoft recomienda Git.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10753,14 +10705,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10771,23 +10723,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Microsoft Entra ID.</t>
+          <t>Siga una estrategia de ramificación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10798,14 +10750,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10816,17 +10768,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Adopte una estrategia de solicitud de incorporación de cambios para ayudar a mantener el control de los cambios de código fusionados en ramas.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10843,14 +10795,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10861,23 +10813,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Estrategia de desarrollo</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Aproveche la infraestructura declarativa como herramientas de código, como Azure Bicep, plantillas de ARM o Terraform, para crear y mantener la arquitectura de la zona de aterrizaje de Azure. Tanto desde el punto de vista de la carga de trabajo de la plataforma como de la aplicación.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10888,14 +10840,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10906,23 +10858,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B216" s="21" t="inlineStr">
+        <is>
           <t>Seguridad</t>
         </is>
       </c>
-      <c r="B216" s="21" t="inlineStr">
-        <is>
-          <t>Cifrado y claves</t>
-        </is>
-      </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10933,14 +10885,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10949,1350 +10901,450 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B217" s="21" t="inlineStr">
-        <is>
-          <t>Cifrado y claves</t>
-        </is>
-      </c>
-      <c r="C217" s="21" t="inlineStr">
-        <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
-        </is>
-      </c>
+      <c r="A217" s="21" t="n"/>
+      <c r="B217" s="21" t="n"/>
+      <c r="C217" s="21" t="n"/>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E217" s="21" t="n"/>
       <c r="G217" s="21" t="n"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
-        </is>
-      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="inlineStr">
-        <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
-        </is>
-      </c>
+      <c r="L217" s="25" t="n"/>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B218" s="21" t="inlineStr">
-        <is>
-          <t>Cifrado y claves</t>
-        </is>
-      </c>
-      <c r="C218" s="21" t="inlineStr">
-        <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
-        </is>
-      </c>
+      <c r="A218" s="21" t="n"/>
+      <c r="B218" s="21" t="n"/>
+      <c r="C218" s="21" t="n"/>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E218" s="21" t="n"/>
       <c r="G218" s="21" t="n"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="inlineStr">
-        <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
-        </is>
-      </c>
+      <c r="L218" s="25" t="n"/>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B219" s="21" t="inlineStr">
-        <is>
-          <t>Cifrado y claves</t>
-        </is>
-      </c>
-      <c r="C219" s="21" t="inlineStr">
-        <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
-        </is>
-      </c>
+      <c r="A219" s="21" t="n"/>
+      <c r="B219" s="21" t="n"/>
+      <c r="C219" s="21" t="n"/>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E219" s="21" t="n"/>
       <c r="G219" s="21" t="n"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
-        </is>
-      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="inlineStr">
-        <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
-        </is>
-      </c>
+      <c r="L219" s="25" t="n"/>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B220" s="21" t="inlineStr">
-        <is>
-          <t>Cifrado y claves</t>
-        </is>
-      </c>
-      <c r="C220" s="21" t="inlineStr">
-        <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
-        </is>
-      </c>
+      <c r="A220" s="21" t="n"/>
+      <c r="B220" s="21" t="n"/>
+      <c r="C220" s="21" t="n"/>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E220" s="21" t="n"/>
       <c r="G220" s="21" t="n"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L220" s="25" t="n"/>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B221" s="21" t="inlineStr">
-        <is>
-          <t>Cifrado y claves</t>
-        </is>
-      </c>
-      <c r="C221" s="21" t="inlineStr">
-        <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
-        </is>
-      </c>
+      <c r="A221" s="21" t="n"/>
+      <c r="B221" s="21" t="n"/>
+      <c r="C221" s="21" t="n"/>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E221" s="21" t="n"/>
       <c r="G221" s="21" t="n"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L221" s="25" t="n"/>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B222" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="C222" s="21" t="inlineStr">
-        <is>
-          <t>Use las capacidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
-        </is>
-      </c>
+      <c r="A222" s="21" t="n"/>
+      <c r="B222" s="21" t="n"/>
+      <c r="C222" s="21" t="n"/>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E222" s="21" t="n"/>
       <c r="G222" s="21" t="n"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L222" s="25" t="n"/>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B223" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="C223" s="21" t="inlineStr">
-        <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
-        </is>
-      </c>
+      <c r="A223" s="21" t="n"/>
+      <c r="B223" s="21" t="n"/>
+      <c r="C223" s="21" t="n"/>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E223" s="21" t="n"/>
       <c r="G223" s="21" t="n"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L223" s="25" t="n"/>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B224" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="C224" s="21" t="inlineStr">
-        <is>
-          <t>Habilite Defender Cloud Security Posture Management para todas las suscripciones.</t>
-        </is>
-      </c>
+      <c r="A224" s="21" t="n"/>
+      <c r="B224" s="21" t="n"/>
+      <c r="C224" s="21" t="n"/>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E224" s="21" t="n"/>
       <c r="G224" s="21" t="n"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
-        </is>
-      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L224" s="25" t="n"/>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B225" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="C225" s="21" t="inlineStr">
-        <is>
-          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
-        </is>
-      </c>
+      <c r="A225" s="21" t="n"/>
+      <c r="B225" s="21" t="n"/>
+      <c r="C225" s="21" t="n"/>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E225" s="21" t="n"/>
       <c r="G225" s="21" t="n"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
-        </is>
-      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="inlineStr">
-        <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
-        </is>
-      </c>
+      <c r="L225" s="25" t="n"/>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B226" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="C226" s="21" t="inlineStr">
-        <is>
-          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
-        </is>
-      </c>
+      <c r="A226" s="21" t="n"/>
+      <c r="B226" s="21" t="n"/>
+      <c r="C226" s="21" t="n"/>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E226" s="21" t="n"/>
       <c r="G226" s="21" t="n"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
-        </is>
-      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="inlineStr">
-        <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
-        </is>
-      </c>
+      <c r="L226" s="25" t="n"/>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B227" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="C227" s="21" t="inlineStr">
-        <is>
-          <t>Habilite Endpoint Protection en servidores IaaS.</t>
-        </is>
-      </c>
+      <c r="A227" s="21" t="n"/>
+      <c r="B227" s="21" t="n"/>
+      <c r="C227" s="21" t="n"/>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E227" s="21" t="n"/>
       <c r="G227" s="21" t="n"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
-        </is>
-      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="inlineStr">
-        <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
-        </is>
-      </c>
+      <c r="L227" s="25" t="n"/>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B229" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="C229" s="21" t="inlineStr">
-        <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
-        </is>
-      </c>
+      <c r="A229" s="21" t="n"/>
+      <c r="B229" s="21" t="n"/>
+      <c r="C229" s="21" t="n"/>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E229" s="21" t="n"/>
       <c r="G229" s="21" t="n"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L229" s="25" t="n"/>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
       <c r="P229" s="25" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B230" s="21" t="inlineStr">
-        <is>
-          <t>Visión general</t>
-        </is>
-      </c>
-      <c r="C230" s="21" t="inlineStr">
-        <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
-        </is>
-      </c>
+      <c r="A230" s="21" t="n"/>
+      <c r="B230" s="21" t="n"/>
+      <c r="C230" s="21" t="n"/>
       <c r="D230" s="21" t="n"/>
-      <c r="E230" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E230" s="21" t="n"/>
       <c r="G230" s="21" t="n"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
-      <c r="L230" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L230" s="25" t="n"/>
       <c r="M230" s="25" t="n"/>
       <c r="N230" s="25" t="n"/>
       <c r="O230" s="25" t="n"/>
       <c r="P230" s="25" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B231" s="21" t="inlineStr">
-        <is>
-          <t>Visión general</t>
-        </is>
-      </c>
-      <c r="C231" s="21" t="inlineStr">
-        <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
-        </is>
-      </c>
+      <c r="A231" s="21" t="n"/>
+      <c r="B231" s="21" t="n"/>
+      <c r="C231" s="21" t="n"/>
       <c r="D231" s="21" t="n"/>
-      <c r="E231" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E231" s="21" t="n"/>
       <c r="G231" s="21" t="n"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
-      <c r="L231" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L231" s="25" t="n"/>
       <c r="M231" s="25" t="n"/>
       <c r="N231" s="25" t="n"/>
       <c r="O231" s="25" t="n"/>
       <c r="P231" s="25" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B232" s="21" t="inlineStr">
-        <is>
-          <t>Acceso privilegiado seguro</t>
-        </is>
-      </c>
-      <c r="C232" s="21" t="inlineStr">
-        <is>
-          <t>Cuentas de administrador con privilegios independientes para las tareas administrativas de Azure.</t>
-        </is>
-      </c>
+      <c r="A232" s="21" t="n"/>
+      <c r="B232" s="21" t="n"/>
+      <c r="C232" s="21" t="n"/>
       <c r="D232" s="21" t="n"/>
-      <c r="E232" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E232" s="21" t="n"/>
       <c r="G232" s="21" t="n"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
-      <c r="L232" s="25" t="inlineStr">
-        <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
-        </is>
-      </c>
+      <c r="L232" s="25" t="n"/>
       <c r="M232" s="25" t="n"/>
       <c r="N232" s="25" t="n"/>
       <c r="O232" s="25" t="n"/>
       <c r="P232" s="25" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B233" s="21" t="inlineStr">
-        <is>
-          <t>Marco de habilitación de servicios</t>
-        </is>
-      </c>
-      <c r="C233" s="21" t="inlineStr">
-        <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
-        </is>
-      </c>
+      <c r="A233" s="21" t="n"/>
+      <c r="B233" s="21" t="n"/>
+      <c r="C233" s="21" t="n"/>
       <c r="D233" s="21" t="n"/>
-      <c r="E233" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E233" s="21" t="n"/>
       <c r="G233" s="21" t="n"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
-      <c r="L233" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L233" s="25" t="n"/>
       <c r="M233" s="25" t="n"/>
       <c r="N233" s="25" t="n"/>
       <c r="O233" s="25" t="n"/>
       <c r="P233" s="25" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B234" s="21" t="inlineStr">
-        <is>
-          <t>Marco de habilitación de servicios</t>
-        </is>
-      </c>
-      <c r="C234" s="21" t="inlineStr">
-        <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
-        </is>
-      </c>
+      <c r="A234" s="21" t="n"/>
+      <c r="B234" s="21" t="n"/>
+      <c r="C234" s="21" t="n"/>
       <c r="D234" s="21" t="n"/>
-      <c r="E234" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E234" s="21" t="n"/>
       <c r="G234" s="21" t="n"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
-      <c r="L234" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L234" s="25" t="n"/>
       <c r="M234" s="25" t="n"/>
       <c r="N234" s="25" t="n"/>
       <c r="O234" s="25" t="n"/>
       <c r="P234" s="25" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B235" s="21" t="inlineStr">
-        <is>
-          <t>Topologías de equipo de DevOps</t>
-        </is>
-      </c>
-      <c r="C235" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de contar con un equipo de plataforma de DevOps multifuncional para crear, administrar y mantener su arquitectura de Azure Landing Zone.</t>
-        </is>
-      </c>
+      <c r="A235" s="21" t="n"/>
+      <c r="B235" s="21" t="n"/>
+      <c r="C235" s="21" t="n"/>
       <c r="D235" s="21" t="n"/>
-      <c r="E235" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E235" s="21" t="n"/>
       <c r="G235" s="21" t="n"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
-        </is>
-      </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
-      <c r="L235" s="25" t="inlineStr">
-        <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
-        </is>
-      </c>
+      <c r="L235" s="25" t="n"/>
       <c r="M235" s="25" t="n"/>
       <c r="N235" s="25" t="n"/>
       <c r="O235" s="25" t="n"/>
       <c r="P235" s="25" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B236" s="21" t="inlineStr">
-        <is>
-          <t>Topologías de equipo de DevOps</t>
-        </is>
-      </c>
-      <c r="C236" s="21" t="inlineStr">
-        <is>
-          <t>Objetivo de definir funciones para el equipo de Azure Landing Zone Platform.</t>
-        </is>
-      </c>
+      <c r="A236" s="21" t="n"/>
+      <c r="B236" s="21" t="n"/>
+      <c r="C236" s="21" t="n"/>
       <c r="D236" s="21" t="n"/>
-      <c r="E236" s="21" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E236" s="21" t="n"/>
       <c r="G236" s="21" t="n"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
-      <c r="L236" s="25" t="inlineStr">
-        <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
-        </is>
-      </c>
+      <c r="L236" s="25" t="n"/>
       <c r="M236" s="25" t="n"/>
       <c r="N236" s="25" t="n"/>
       <c r="O236" s="25" t="n"/>
       <c r="P236" s="25" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B237" s="21" t="inlineStr">
-        <is>
-          <t>Topologías de equipo de DevOps</t>
-        </is>
-      </c>
-      <c r="C237" s="21" t="inlineStr">
-        <is>
-          <t>Intente definir funciones para que los equipos de carga de trabajo de aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
-        </is>
-      </c>
+      <c r="A237" s="21" t="n"/>
+      <c r="B237" s="21" t="n"/>
+      <c r="C237" s="21" t="n"/>
       <c r="D237" s="21" t="n"/>
-      <c r="E237" s="21" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E237" s="21" t="n"/>
       <c r="G237" s="21" t="n"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
-      <c r="L237" s="25" t="inlineStr">
-        <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
-        </is>
-      </c>
+      <c r="L237" s="25" t="n"/>
       <c r="M237" s="25" t="n"/>
       <c r="N237" s="25" t="n"/>
       <c r="O237" s="25" t="n"/>
       <c r="P237" s="25" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B238" s="21" t="inlineStr">
-        <is>
-          <t>Topologías de equipo de DevOps</t>
-        </is>
-      </c>
-      <c r="C238" s="21" t="inlineStr">
-        <is>
-          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
-        </is>
-      </c>
+      <c r="A238" s="21" t="n"/>
+      <c r="B238" s="21" t="n"/>
+      <c r="C238" s="21" t="n"/>
       <c r="D238" s="21" t="n"/>
-      <c r="E238" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E238" s="21" t="n"/>
       <c r="G238" s="21" t="n"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
-      <c r="L238" s="25" t="inlineStr">
-        <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
-        </is>
-      </c>
+      <c r="L238" s="25" t="n"/>
       <c r="M238" s="25" t="n"/>
       <c r="N238" s="25" t="n"/>
       <c r="O238" s="25" t="n"/>
       <c r="P238" s="25" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B239" s="21" t="inlineStr">
-        <is>
-          <t>Topologías de equipo de DevOps</t>
-        </is>
-      </c>
-      <c r="C239" s="21" t="inlineStr">
-        <is>
-          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
-        </is>
-      </c>
+      <c r="A239" s="21" t="n"/>
+      <c r="B239" s="21" t="n"/>
+      <c r="C239" s="21" t="n"/>
       <c r="D239" s="21" t="n"/>
-      <c r="E239" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E239" s="21" t="n"/>
       <c r="G239" s="21" t="n"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
-      <c r="L239" s="25" t="inlineStr">
-        <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
-        </is>
-      </c>
+      <c r="L239" s="25" t="n"/>
       <c r="M239" s="25" t="n"/>
       <c r="N239" s="25" t="n"/>
       <c r="O239" s="25" t="n"/>
       <c r="P239" s="25" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B240" s="21" t="inlineStr">
-        <is>
-          <t>Topologías de equipo de DevOps</t>
-        </is>
-      </c>
-      <c r="C240" s="21" t="inlineStr">
-        <is>
-          <t>Use los secretos del Almacén de claves para evitar codificar información confidencial, como credenciales (contraseñas de usuario de máquinas virtuales), certificados o claves.</t>
-        </is>
-      </c>
+      <c r="A240" s="21" t="n"/>
+      <c r="B240" s="21" t="n"/>
+      <c r="C240" s="21" t="n"/>
       <c r="D240" s="21" t="n"/>
-      <c r="E240" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E240" s="21" t="n"/>
       <c r="G240" s="21" t="n"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
-      <c r="L240" s="25" t="inlineStr">
-        <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
-        </is>
-      </c>
+      <c r="L240" s="25" t="n"/>
       <c r="M240" s="25" t="n"/>
       <c r="N240" s="25" t="n"/>
       <c r="O240" s="25" t="n"/>
       <c r="P240" s="25" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B241" s="21" t="inlineStr">
-        <is>
-          <t>Topologías de equipo de DevOps</t>
-        </is>
-      </c>
-      <c r="C241" s="21" t="inlineStr">
-        <is>
-          <t>Implemente la automatización para File &gt; New &gt; Landing Zone para aplicaciones y cargas de trabajo.</t>
-        </is>
-      </c>
+      <c r="A241" s="21" t="n"/>
+      <c r="B241" s="21" t="n"/>
+      <c r="C241" s="21" t="n"/>
       <c r="D241" s="21" t="n"/>
-      <c r="E241" s="21" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E241" s="21" t="n"/>
       <c r="G241" s="21" t="n"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
-        </is>
-      </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
-      <c r="L241" s="25" t="inlineStr">
-        <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
-        </is>
-      </c>
+      <c r="L241" s="25" t="n"/>
       <c r="M241" s="25" t="n"/>
       <c r="N241" s="25" t="n"/>
       <c r="O241" s="25" t="n"/>
       <c r="P241" s="25" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B242" s="21" t="inlineStr">
-        <is>
-          <t>Ciclo de vida de desarrollo</t>
-        </is>
-      </c>
-      <c r="C242" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y se desarrolla IaC. Microsoft recomienda Git.</t>
-        </is>
-      </c>
+      <c r="A242" s="21" t="n"/>
+      <c r="B242" s="21" t="n"/>
+      <c r="C242" s="21" t="n"/>
       <c r="D242" s="21" t="n"/>
-      <c r="E242" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E242" s="21" t="n"/>
       <c r="G242" s="21" t="n"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
-      <c r="L242" s="25" t="inlineStr">
-        <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
-        </is>
-      </c>
+      <c r="L242" s="25" t="n"/>
       <c r="M242" s="25" t="n"/>
       <c r="N242" s="25" t="n"/>
       <c r="O242" s="25" t="n"/>
       <c r="P242" s="25" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B243" s="21" t="inlineStr">
-        <is>
-          <t>Ciclo de vida de desarrollo</t>
-        </is>
-      </c>
-      <c r="C243" s="21" t="inlineStr">
-        <is>
-          <t>Siga una estrategia de bifurcación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
-        </is>
-      </c>
+      <c r="A243" s="21" t="n"/>
+      <c r="B243" s="21" t="n"/>
+      <c r="C243" s="21" t="n"/>
       <c r="D243" s="21" t="n"/>
-      <c r="E243" s="21" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E243" s="21" t="n"/>
       <c r="G243" s="21" t="n"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
-      <c r="L243" s="25" t="inlineStr">
-        <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
-        </is>
-      </c>
+      <c r="L243" s="25" t="n"/>
       <c r="M243" s="25" t="n"/>
       <c r="N243" s="25" t="n"/>
       <c r="O243" s="25" t="n"/>
       <c r="P243" s="25" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B244" s="21" t="inlineStr">
-        <is>
-          <t>Ciclo de vida de desarrollo</t>
-        </is>
-      </c>
-      <c r="C244" s="21" t="inlineStr">
-        <is>
-          <t>Adopte una estrategia de solicitud de extracción para ayudar a mantener el control de los cambios de código combinados en ramas.</t>
-        </is>
-      </c>
+      <c r="A244" s="21" t="n"/>
+      <c r="B244" s="21" t="n"/>
+      <c r="C244" s="21" t="n"/>
       <c r="D244" s="21" t="n"/>
-      <c r="E244" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E244" s="21" t="n"/>
       <c r="G244" s="21" t="n"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
-      <c r="L244" s="25" t="inlineStr">
-        <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
-        </is>
-      </c>
+      <c r="L244" s="25" t="n"/>
       <c r="M244" s="25" t="n"/>
       <c r="N244" s="25" t="n"/>
       <c r="O244" s="25" t="n"/>
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B245" s="21" t="inlineStr">
-        <is>
-          <t>Estrategia de desarrollo</t>
-        </is>
-      </c>
-      <c r="C245" s="21" t="inlineStr">
-        <is>
-          <t>Aproveche la infraestructura declarativa como herramientas de código como Azure Bicep, plantillas ARM o Terraform para crear y mantener su arquitectura de Azure Landing Zone. Tanto desde la perspectiva de la carga de trabajo de la plataforma como de la aplicación.</t>
-        </is>
-      </c>
+      <c r="A245" s="21" t="n"/>
+      <c r="B245" s="21" t="n"/>
+      <c r="C245" s="21" t="n"/>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E245" s="21" t="n"/>
       <c r="G245" s="21" t="n"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="inlineStr">
-        <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
-        </is>
-      </c>
+      <c r="L245" s="25" t="n"/>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C246" s="21" t="inlineStr">
-        <is>
-          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
-        </is>
-      </c>
+      <c r="A246" s="21" t="n"/>
+      <c r="B246" s="21" t="n"/>
+      <c r="C246" s="21" t="n"/>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E246" s="21" t="n"/>
       <c r="G246" s="21" t="n"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L246" s="25" t="n"/>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
@@ -13209,7 +12261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13300,7 +12352,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Inquilinos de Azure Billing y Microsoft Entra ID</t>
+          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -13369,7 +12421,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -3366,13 +3366,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y las características necesarios estén disponibles en las regiones de implementación elegidas</t>
+          <t>Aplicar un proceso para la gestión de costos</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3383,19 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3416,13 +3416,13 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costos</t>
+          <t>Si AD está en Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración Indentity para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3433,19 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Si AD está en Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración Indentity para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3483,19 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Regiones</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
+          <t>Seleccione las regiones de Azure adecuadas para la implementación. Azure es una plataforma en la nube a escala global que proporciona cobertura global a través de muchas regiones y geografías. Las diferentes regiones de Azure tienen diferentes características, modelos de acceso y disponibilidad, costos, capacidad y servicios ofrecidos, por lo que es importante tener en cuenta todos los criterios y requisitos</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3556,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Regiones</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Desarrolle un plan para proteger el contenido de la aplicación de entrega de los radios de carga de trabajo mediante Application Gateway y Azure Front Door.  Puede utilizar la lista de comprobación de entrega de aplicaciones para obtener recomendaciones.</t>
+          <t>Considere la posibilidad de realizar una implementación en varias regiones. Dependiendo del tamaño del cliente, las ubicaciones y la presencia de los usuarios, operar en varias regiones puede ser una opción común para prestar servicios y ejecutar aplicaciones más cerca de ellos. El uso de una implementación en varias regiones también es importante para proporcionar capacidades de recuperación ante desastres geográficas, eliminar la dependencia de la capacidad de una sola región y disminuir el riesgo de una restricción temporal y localizada de la capacidad de los recursos</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3601,17 +3606,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Regiones</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones internas (corp) como externas (en línea).</t>
+          <t>Asegúrese de que los servicios y las características necesarios estén disponibles en las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3628,19 +3633,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3661,7 +3666,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Desarrolle un plan para proteger el contenido de la aplicación de entrega de los radios de carga de trabajo mediante Application Gateway y Azure Front Door.  Puede utilizar la lista de comprobación de entrega de aplicaciones para obtener recomendaciones.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3683,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones internas (corp) como externas (en línea).</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,15 +3728,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3756,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
+          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3778,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,12 +3806,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Cubo y radio</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3824,19 +3828,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3852,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Cubo y radio</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
+          <t xml:space="preserve">En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,14 +3874,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,7 +3907,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3919,15 +3924,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3948,13 +3957,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Si necesita el tránsito entre ExpressRoute y puertas de enlace de VPN en escenarios en estrella tipo hub-and-spoke, use Azure Route Server.</t>
+          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3965,7 +3974,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3973,7 +3982,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,13 +4003,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
+          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4011,7 +4020,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4019,7 +4028,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4040,13 +4049,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí. </t>
+          <t>Si necesita el tránsito entre ExpressRoute y puertas de enlace de VPN en escenarios en estrella tipo hub-and-spoke, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4057,19 +4066,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4090,13 +4095,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
+          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4107,19 +4112,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4140,7 +4141,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
+          <t xml:space="preserve">En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí. </t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4157,15 +4158,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4186,7 +4191,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
+          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4203,15 +4208,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4232,13 +4241,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
+          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4249,7 +4258,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4257,7 +4266,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4273,12 +4282,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4295,19 +4304,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4323,22 +4328,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4349,19 +4350,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4382,7 +4379,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4399,7 +4396,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
@@ -4411,7 +4408,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,13 +4429,17 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="inlineStr">
+        <is>
+          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4449,15 +4450,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,13 +4483,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
+          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4495,15 +4500,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,13 +4533,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4541,19 +4550,15 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4574,13 +4579,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4591,19 +4596,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4624,7 +4625,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4641,7 +4642,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
@@ -4653,7 +4654,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4674,7 +4675,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace de VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resistencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
+          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4691,19 +4692,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4724,13 +4725,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4741,7 +4742,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4753,7 +4754,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4774,7 +4775,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use puertas de enlace de VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resistencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4791,19 +4792,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4824,13 +4825,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4841,7 +4842,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
@@ -4853,7 +4854,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4874,7 +4875,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para supervisar la conectividad en todo el entorno.</t>
+          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4891,7 +4892,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4903,7 +4904,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4924,7 +4925,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4941,7 +4942,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4953,7 +4954,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4974,13 +4975,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, impleméntelo en un conjunto de disponibilidad.</t>
+          <t>Utilice el Monitor de conexión para supervisar la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4991,15 +4992,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5015,18 +5020,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5037,19 +5042,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5065,18 +5070,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, impleméntelo en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5087,19 +5092,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,7 +5121,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5149,7 +5150,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5170,13 +5171,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5187,19 +5188,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5220,13 +5221,13 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5237,19 +5238,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5270,13 +5271,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,19 +5288,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5320,13 +5321,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
+          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5340,12 +5341,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I96" s="15" t="n"/>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5366,13 +5371,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5383,19 +5388,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5411,18 +5416,18 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5433,7 +5438,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5441,7 +5446,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5457,18 +5462,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,15 +5484,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5517,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5534,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,7 +5563,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5575,19 +5580,15 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,13 +5609,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5626,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5637,7 +5638,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,7 +5659,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5675,19 +5676,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,7 +5709,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5725,19 +5726,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,13 +5759,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5775,19 +5776,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5808,13 +5809,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,19 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5858,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
+          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5875,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5921,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,7 +5959,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5967,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5975,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6005,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,7 +6022,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -6021,7 +6030,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6042,7 +6051,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
+          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6059,14 +6068,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6082,12 +6091,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6104,19 +6113,15 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6132,18 +6137,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
+          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6154,19 +6159,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6182,18 +6183,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6204,19 +6205,15 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6237,13 +6234,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6254,7 +6251,7 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6266,7 +6263,7 @@
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6287,7 +6284,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
+          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6309,14 +6306,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6332,18 +6329,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6354,14 +6351,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6377,18 +6379,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6399,15 +6401,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,12 +6429,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6445,14 +6451,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,13 +6484,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6490,19 +6501,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,13 +6530,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6540,19 +6547,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6573,7 +6576,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6588,17 +6591,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6622,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6669,7 +6672,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6686,19 +6689,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6714,12 +6717,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6734,21 +6737,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6764,12 +6763,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
+          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6786,14 +6785,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6809,18 +6813,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Habilite los registros de flujo de NSG e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6831,14 +6835,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6859,7 +6868,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
+          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6876,19 +6885,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6909,7 +6918,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6926,14 +6935,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6954,13 +6963,13 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
+          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6971,14 +6980,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6999,7 +7008,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7016,14 +7025,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7044,7 +7058,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7061,14 +7075,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7089,7 +7103,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
+          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7106,14 +7120,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7134,13 +7148,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7151,14 +7165,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7169,23 +7183,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
+          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7196,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7214,17 +7228,17 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7241,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7259,23 +7273,23 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
+          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7286,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7314,13 +7328,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
+          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7338,7 +7352,7 @@
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7359,7 +7373,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7376,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7404,13 +7418,13 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
+          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7421,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7449,7 +7463,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7473,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7494,14 +7508,10 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -7515,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7543,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7560,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7588,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7605,19 +7615,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7633,18 +7638,22 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="n"/>
+          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7655,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7673,17 +7682,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
+          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7700,14 +7709,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7723,12 +7732,12 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7745,14 +7754,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7763,23 +7777,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7790,14 +7804,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7808,17 +7822,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
+          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7835,14 +7849,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7853,17 +7867,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7880,14 +7894,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7903,18 +7917,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7925,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7948,12 +7962,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7970,19 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7998,12 +8007,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8018,12 +8027,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8039,12 +8052,12 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8061,19 +8074,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8094,7 +8102,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8111,19 +8119,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8144,7 +8152,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8159,21 +8167,12 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H156" s="15" t="n"/>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8194,7 +8193,7 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8211,19 +8210,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8244,7 +8243,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8261,19 +8260,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8294,7 +8293,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8311,7 +8310,7 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8323,7 +8322,7 @@
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8344,13 +8343,13 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8361,14 +8360,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8389,7 +8393,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8406,14 +8410,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8434,7 +8443,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8451,14 +8460,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8479,13 +8493,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8496,14 +8510,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8524,7 +8538,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
+          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8541,14 +8555,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8569,7 +8583,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8586,14 +8600,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8614,7 +8628,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8631,14 +8645,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8673,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,14 +8690,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8704,7 +8718,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8721,14 +8735,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8749,7 +8763,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8766,14 +8780,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8789,12 +8803,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operacional</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8811,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8834,19 +8848,15 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operacional</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -8860,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,12 +8893,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8905,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8928,12 +8938,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8950,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8973,15 +8983,19 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="n"/>
+          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -8995,14 +9009,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9013,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9040,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9058,23 +9072,23 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9085,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9103,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9130,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9148,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9175,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9193,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9220,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9238,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9265,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9288,12 +9302,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9310,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9333,12 +9347,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9355,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,13 +9397,13 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9400,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9428,7 +9442,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9445,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9473,7 +9487,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9497,7 +9511,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,7 +9532,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9542,7 +9556,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9563,7 +9577,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9580,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9608,7 +9622,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9632,7 +9646,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9653,7 +9667,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9670,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9698,7 +9712,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9715,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9743,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
+          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9767,7 +9781,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9783,12 +9797,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9805,14 +9819,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9828,12 +9842,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para un almacenamiento a largo plazo superior a dos años, si es necesario.</t>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9850,14 +9864,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9873,18 +9887,18 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
+          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9895,14 +9909,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9923,13 +9937,13 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
+          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9940,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9968,13 +9982,13 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para un almacenamiento a largo plazo superior a dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -9985,14 +9999,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10013,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Habilite Endpoint Protection en servidores IaaS.</t>
+          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10030,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10058,13 +10072,13 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
+          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10075,14 +10089,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10103,13 +10117,13 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
+          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10120,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10143,12 +10157,12 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Habilite Endpoint Protection en servidores IaaS.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10165,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10188,18 +10202,18 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10210,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10233,18 +10247,18 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Separe las cuentas de administrador con privilegios para las tareas administrativas de Azure.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10255,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10278,18 +10292,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Marco de habilitación de servicios</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10300,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10323,18 +10337,18 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Marco de habilitación de servicios</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10345,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10363,17 +10377,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Acceso privilegiado seguro</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que cuenta con un equipo multifuncional de la plataforma DevOps para crear, administrar y mantener la arquitectura de la zona de aterrizaje de Azure.</t>
+          <t>Separe las cuentas de administrador con privilegios para las tareas administrativas de Azure.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10390,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10408,23 +10422,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Trate de definir funciones para el equipo de la plataforma de zona de aterrizaje de Azure.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10435,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10453,23 +10467,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Trate de definir funciones para que los equipos de carga de trabajo de las aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10480,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10508,7 +10522,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
+          <t>Asegúrese de que cuenta con un equipo multifuncional de la plataforma DevOps para crear, administrar y mantener la arquitectura de la zona de aterrizaje de Azure.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10525,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10553,13 +10567,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
+          <t>Trate de definir funciones para el equipo de la plataforma de zona de aterrizaje de Azure.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10570,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10598,13 +10612,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
+          <t>Trate de definir funciones para que los equipos de carga de trabajo de las aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10615,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10643,13 +10657,13 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Implemente la automatización de la zona de aterrizaje de archivos &gt; nueva &gt; para aplicaciones y cargas de trabajo.</t>
+          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10660,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10683,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y la IaC desarrollada. Microsoft recomienda Git.</t>
+          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10705,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10728,18 +10742,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Siga una estrategia de ramificación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
+          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10750,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10773,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Adopte una estrategia de solicitud de incorporación de cambios para ayudar a mantener el control de los cambios de código fusionados en ramas.</t>
+          <t>Implemente la automatización de la zona de aterrizaje de archivos &gt; nueva &gt; para aplicaciones y cargas de trabajo.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10795,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10818,12 +10832,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Estrategia de desarrollo</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la infraestructura declarativa como herramientas de código, como Azure Bicep, plantillas de ARM o Terraform, para crear y mantener la arquitectura de la zona de aterrizaje de Azure. Tanto desde el punto de vista de la carga de trabajo de la plataforma como de la aplicación.</t>
+          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y la IaC desarrollada. Microsoft recomienda Git.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10847,7 +10861,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10863,18 +10877,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
+          <t>Siga una estrategia de ramificación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10885,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10901,45 +10915,135 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="n"/>
-      <c r="B217" s="21" t="n"/>
-      <c r="C217" s="21" t="n"/>
+      <c r="A217" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B217" s="21" t="inlineStr">
+        <is>
+          <t>Ciclo de vida de desarrollo</t>
+        </is>
+      </c>
+      <c r="C217" s="21" t="inlineStr">
+        <is>
+          <t>Adopte una estrategia de solicitud de incorporación de cambios para ayudar a mantener el control de los cambios de código fusionados en ramas.</t>
+        </is>
+      </c>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="n"/>
+      <c r="E217" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G217" s="21" t="n"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="n"/>
+      <c r="L217" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="n"/>
-      <c r="B218" s="21" t="n"/>
-      <c r="C218" s="21" t="n"/>
+      <c r="A218" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B218" s="21" t="inlineStr">
+        <is>
+          <t>Estrategia de desarrollo</t>
+        </is>
+      </c>
+      <c r="C218" s="21" t="inlineStr">
+        <is>
+          <t>Aproveche la infraestructura declarativa como herramientas de código, como Azure Bicep, plantillas de ARM o Terraform, para crear y mantener la arquitectura de la zona de aterrizaje de Azure. Tanto desde el punto de vista de la carga de trabajo de la plataforma como de la aplicación.</t>
+        </is>
+      </c>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="n"/>
+      <c r="E218" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G218" s="21" t="n"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="n"/>
+      <c r="L218" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="n"/>
-      <c r="B219" s="21" t="n"/>
-      <c r="C219" s="21" t="n"/>
+      <c r="A219" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B219" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C219" s="21" t="inlineStr">
+        <is>
+          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
+        </is>
+      </c>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="n"/>
+      <c r="E219" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G219" s="21" t="n"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="n"/>
+      <c r="L219" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
@@ -12261,7 +12365,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Regiones</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Seleccione las regiones de Azure adecuadas para la implementación. Azure es una plataforma en la nube a escala global que proporciona cobertura global a través de muchas regiones y geografías. Las diferentes regiones de Azure tienen diferentes características, modelos de acceso y disponibilidad, costos, capacidad y servicios ofrecidos, por lo que es importante tener en cuenta todos los criterios y requisitos</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, contar con una "corporación confidencial" y un grupo de gestión "confidencial en línea" directamente bajo el MG de las "zonas de aterrizaje".</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
+          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3566,13 +3561,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de realizar una implementación en varias regiones. Dependiendo del tamaño del cliente, las ubicaciones y la presencia de los usuarios, operar en varias regiones puede ser una opción común para prestar servicios y ejecutar aplicaciones más cerca de ellos. El uso de una implementación en varias regiones también es importante para proporcionar capacidades de recuperación ante desastres geográficas, eliminar la dependencia de la capacidad de una sola región y disminuir el riesgo de una restricción temporal y localizada de la capacidad de los recursos</t>
+          <t>Seleccione las regiones de Azure adecuadas para la implementación. Azure es una plataforma en la nube a escala global que proporciona cobertura global a través de muchas regiones y geografías. Las diferentes regiones de Azure tienen diferentes características, modelos de acceso y disponibilidad, costos, capacidad y servicios ofrecidos, por lo que es importante tener en cuenta todos los criterios y requisitos</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3583,7 +3578,7 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3595,7 +3590,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3616,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y las características necesarios estén disponibles en las regiones de implementación elegidas</t>
+          <t>Considere la posibilidad de realizar una implementación en varias regiones. Dependiendo del tamaño del cliente, las ubicaciones y la presencia de los usuarios, operar en varias regiones puede ser una opción común para prestar servicios y ejecutar aplicaciones más cerca de ellos. El uso de una implementación en varias regiones también es importante para proporcionar capacidades de recuperación ante desastres geográficas, eliminar la dependencia de la capacidad de una sola región y disminuir el riesgo de una restricción temporal y localizada de la capacidad de los recursos</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3633,7 +3628,7 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3645,7 +3640,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3656,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Organización de recursos</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Regiones</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Desarrolle un plan para proteger el contenido de la aplicación de entrega de los radios de carga de trabajo mediante Application Gateway y Azure Front Door.  Puede utilizar la lista de comprobación de entrega de aplicaciones para obtener recomendaciones.</t>
+          <t>Asegúrese de que los servicios y las características necesarios estén disponibles en las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3683,14 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones internas (corp) como externas (en línea).</t>
+          <t>Desarrolle un plan para proteger el contenido de la aplicación de entrega de los radios de carga de trabajo mediante Application Gateway y Azure Front Door.  Puede utilizar la lista de comprobación de entrega de aplicaciones para obtener recomendaciones.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones internas (corp) como externas (en línea).</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3778,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3806,12 +3802,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
+          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3828,15 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3857,13 +3857,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,18 +3897,18 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Cubo y radio</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
+          <t xml:space="preserve">En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3924,19 +3919,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3957,13 +3952,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3974,15 +3969,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4003,13 +4002,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
+          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4020,7 +4019,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4028,7 +4027,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4049,13 +4048,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Si necesita el tránsito entre ExpressRoute y puertas de enlace de VPN en escenarios en estrella tipo hub-and-spoke, use Azure Route Server.</t>
+          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4066,7 +4065,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4074,7 +4073,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4095,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
+          <t>Si necesita el tránsito entre ExpressRoute y puertas de enlace de VPN en escenarios en estrella tipo hub-and-spoke, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4112,7 +4111,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4120,7 +4119,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4141,13 +4140,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí. </t>
+          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4158,19 +4157,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4191,7 +4186,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
+          <t xml:space="preserve">En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí. </t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4208,19 +4203,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4241,7 +4236,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
+          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4258,15 +4253,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4287,7 +4286,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
+          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4312,7 +4311,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,13 +4332,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
+          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4350,7 +4349,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4358,7 +4357,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4374,18 +4373,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Cubo y radio</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4396,19 +4395,15 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4429,14 +4424,10 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4450,7 +4441,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
@@ -4462,7 +4453,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4483,10 +4474,14 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="inlineStr">
+        <is>
+          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4512,7 +4507,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4533,13 +4528,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
+          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4550,15 +4545,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4579,7 +4578,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
+          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4596,7 +4595,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4604,7 +4603,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4625,13 +4624,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4642,19 +4641,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4675,7 +4670,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4692,7 +4687,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
@@ -4704,7 +4699,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4725,7 +4720,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
+          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4742,7 +4737,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4754,7 +4749,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4775,7 +4770,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace de VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resistencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4792,19 +4787,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4825,13 +4820,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
+          <t>Use puertas de enlace de VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resistencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4842,19 +4837,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4892,7 +4887,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4904,7 +4899,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4925,7 +4920,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
+          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4942,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4954,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4975,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para supervisar la conectividad en todo el entorno.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4992,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -5004,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5025,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
+          <t>Use el Monitor de conexión para la supervisión de la conectividad en toda la red, especialmente entre el entorno local y Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5042,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5054,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5075,13 +5070,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, impleméntelo en un conjunto de disponibilidad.</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5092,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5116,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, impleméntelo en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5138,19 +5137,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,18 +5161,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
+          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5188,19 +5183,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5216,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5238,19 +5229,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5271,7 +5258,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5288,19 +5275,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5321,13 +5308,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5338,19 +5325,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5371,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5388,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5421,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5438,15 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5467,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5484,7 +5475,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5496,7 +5487,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,12 +5503,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5534,15 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5553,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,7 +5575,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5588,7 +5583,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5604,12 +5599,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5626,19 +5621,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5659,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5676,19 +5671,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5709,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5726,19 +5717,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5759,13 +5746,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5776,19 +5763,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5809,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5826,19 +5813,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,13 +5846,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5876,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5896,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
+          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5976,15 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,15 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6051,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6068,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6113,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6121,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6159,7 +6159,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6167,7 +6167,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas</t>
+          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6205,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6213,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6229,12 +6229,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,19 +6251,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,18 +6274,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
+          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6301,19 +6296,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6329,18 +6319,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6351,19 +6341,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6384,13 +6369,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6401,7 +6386,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6413,7 +6398,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6434,7 +6419,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
+          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6456,14 +6441,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6479,18 +6464,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6501,15 +6486,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6525,18 +6514,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6547,15 +6536,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6571,12 +6564,12 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6593,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6622,13 +6619,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6639,19 +6636,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6672,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6689,19 +6682,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6722,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6737,17 +6726,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6768,7 +6757,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6785,19 +6774,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6818,7 +6807,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6835,19 +6824,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6863,12 +6852,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6883,21 +6872,17 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6913,12 +6898,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
+          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6935,14 +6920,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6958,18 +6948,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Habilite los registros de flujo de NSG e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6980,14 +6970,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7008,7 +7003,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
+          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7025,19 +7020,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7058,7 +7053,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7075,14 +7070,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7103,13 +7098,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
+          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7120,14 +7115,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7148,7 +7143,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7165,14 +7160,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
+          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,13 +7283,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7300,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7318,23 +7318,23 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
+          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7345,14 +7345,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7363,17 +7363,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7390,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,23 +7408,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
+          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7435,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7463,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
+          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7487,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
+          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7570,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7622,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,14 +7643,10 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -7664,14 +7660,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7692,13 +7688,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7709,14 +7705,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7737,7 +7733,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7754,19 +7750,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7782,18 +7773,22 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="n"/>
+          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7804,14 +7799,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7822,17 +7817,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
+          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7849,14 +7844,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,12 +7867,12 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7894,14 +7889,19 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7912,23 +7912,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, la iniciativa política de referencia de la política de soberanía se despliega y asigna al nivel correcto de MG.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7939,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7957,17 +7957,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, se documentan los objetivos de control soberano para el mapeo de políticas.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7984,14 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,17 +8002,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, existe un proceso para el CRUD de "Objetivos de Control Soberano para el mapeo de políticas".</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8027,16 +8027,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8047,23 +8043,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
+          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8074,14 +8070,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8092,17 +8088,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8119,19 +8115,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8142,17 +8133,17 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8167,12 +8158,16 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,18 +8183,18 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8210,19 +8205,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8238,12 +8228,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8260,19 +8250,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8288,12 +8273,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
+          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8310,19 +8295,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8338,12 +8318,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8360,19 +8340,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8393,7 +8368,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8410,19 +8385,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8443,7 +8418,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8458,21 +8433,12 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H162" s="15" t="n"/>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8493,13 +8459,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8510,14 +8476,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8538,7 +8509,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8555,14 +8526,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8583,7 +8559,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
+          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8600,14 +8576,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8628,7 +8609,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8645,14 +8626,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8673,7 +8659,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8690,14 +8676,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8718,7 +8709,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8735,14 +8726,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8763,13 +8759,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8780,14 +8776,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8804,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,14 +8821,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,7 +8849,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8866,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8894,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8911,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,12 +8934,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operacional</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8956,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,19 +8979,15 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operacional</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9009,14 +9001,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9032,12 +9024,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9054,14 +9046,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,12 +9069,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9099,14 +9091,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9122,12 +9114,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9136,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9154,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
+          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9181,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,23 +9199,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9234,14 +9226,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,20 +9244,24 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9279,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9293,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9320,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9338,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,14 +9365,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9387,23 +9383,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9414,14 +9410,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,23 +9428,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9459,14 +9455,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9477,23 +9473,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9500,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9522,17 +9518,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9545,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9572,12 +9568,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9594,14 +9590,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9617,12 +9613,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9635,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,13 +9663,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9684,14 +9680,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9712,7 +9708,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
+          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9729,14 +9725,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,7 +9753,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9781,7 +9777,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9798,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9815,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9843,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9867,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9888,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9912,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,12 +9928,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
+          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9954,14 +9950,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,12 +9973,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para un almacenamiento a largo plazo superior a dos años, si es necesario.</t>
+          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9999,14 +9995,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,18 +10018,18 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
+          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10044,14 +10040,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,18 +10063,18 @@
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10089,14 +10085,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,18 +10108,18 @@
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10134,14 +10130,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,18 +10153,18 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Habilite Endpoint Protection en servidores IaaS.</t>
+          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10179,14 +10175,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10202,12 +10198,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
+          <t>En el caso de la zona de aterrizaje soberana, use el HSM administrado de Azure Key Vault para almacenar los secretos y las credenciales.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10224,14 +10220,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10248,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
+          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10265,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,18 +10288,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para un almacenamiento a largo plazo superior a dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10314,14 +10310,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,12 +10333,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10355,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,12 +10378,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Separe las cuentas de administrador con privilegios para las tareas administrativas de Azure.</t>
+          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10404,14 +10400,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,18 +10423,18 @@
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Marco de habilitación de servicios</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10449,14 +10445,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,18 +10468,18 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Marco de habilitación de servicios</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Habilite Endpoint Protection en servidores IaaS.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10494,14 +10490,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10512,23 +10508,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que cuenta con un equipo multifuncional de la plataforma DevOps para crear, administrar y mantener la arquitectura de la zona de aterrizaje de Azure.</t>
+          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10539,14 +10535,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10557,23 +10553,23 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Trate de definir funciones para el equipo de la plataforma de zona de aterrizaje de Azure.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10580,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10602,23 +10598,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Trate de definir funciones para que los equipos de carga de trabajo de las aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
+          <t>En el caso de la zona de aterrizaje soberana, los registros de transparencia están habilitados en el inquilino de Entra ID.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10629,14 +10625,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,23 +10643,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
+          <t>En el caso de la zona de aterrizaje soberana, la caja de seguridad del cliente está habilitada en el inquilino de Entra ID.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10674,14 +10670,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,23 +10688,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10719,14 +10715,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,17 +10733,17 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10764,14 +10760,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,23 +10778,23 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Acceso privilegiado seguro</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Implemente la automatización de la zona de aterrizaje de archivos &gt; nueva &gt; para aplicaciones y cargas de trabajo.</t>
+          <t>Separe las cuentas de administrador con privilegios para las tareas administrativas de Azure.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10809,14 +10805,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,23 +10823,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y la IaC desarrollada. Microsoft recomienda Git.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10854,14 +10850,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10872,23 +10868,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas y DevOps</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Siga una estrategia de ramificación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10895,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10922,18 +10918,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Adopte una estrategia de solicitud de incorporación de cambios para ayudar a mantener el control de los cambios de código fusionados en ramas.</t>
+          <t>Asegúrese de que cuenta con un equipo multifuncional de la plataforma DevOps para crear, administrar y mantener la arquitectura de la zona de aterrizaje de Azure.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10944,14 +10940,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,18 +10963,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>Estrategia de desarrollo</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la infraestructura declarativa como herramientas de código, como Azure Bicep, plantillas de ARM o Terraform, para crear y mantener la arquitectura de la zona de aterrizaje de Azure. Tanto desde el punto de vista de la carga de trabajo de la plataforma como de la aplicación.</t>
+          <t>Trate de definir funciones para el equipo de la plataforma de zona de aterrizaje de Azure.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10985,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,18 +11008,18 @@
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
+          <t>Trate de definir funciones para que los equipos de carga de trabajo de las aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11030,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11050,135 +11046,405 @@
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="n"/>
-      <c r="B220" s="21" t="n"/>
-      <c r="C220" s="21" t="n"/>
+      <c r="A220" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B220" s="21" t="inlineStr">
+        <is>
+          <t>Topologías de equipo de DevOps</t>
+        </is>
+      </c>
+      <c r="C220" s="21" t="inlineStr">
+        <is>
+          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
+        </is>
+      </c>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="n"/>
+      <c r="E220" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G220" s="21" t="n"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="n"/>
+      <c r="L220" s="25" t="inlineStr">
+        <is>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+        </is>
+      </c>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="n"/>
-      <c r="B221" s="21" t="n"/>
-      <c r="C221" s="21" t="n"/>
+      <c r="A221" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B221" s="21" t="inlineStr">
+        <is>
+          <t>Topologías de equipo de DevOps</t>
+        </is>
+      </c>
+      <c r="C221" s="21" t="inlineStr">
+        <is>
+          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
+        </is>
+      </c>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="n"/>
+      <c r="E221" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G221" s="21" t="n"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="n"/>
+      <c r="L221" s="25" t="inlineStr">
+        <is>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+        </is>
+      </c>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="n"/>
-      <c r="B222" s="21" t="n"/>
-      <c r="C222" s="21" t="n"/>
+      <c r="A222" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B222" s="21" t="inlineStr">
+        <is>
+          <t>Topologías de equipo de DevOps</t>
+        </is>
+      </c>
+      <c r="C222" s="21" t="inlineStr">
+        <is>
+          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
+        </is>
+      </c>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="n"/>
+      <c r="E222" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G222" s="21" t="n"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="n"/>
+      <c r="L222" s="25" t="inlineStr">
+        <is>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+        </is>
+      </c>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="n"/>
-      <c r="B223" s="21" t="n"/>
-      <c r="C223" s="21" t="n"/>
+      <c r="A223" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B223" s="21" t="inlineStr">
+        <is>
+          <t>Topologías de equipo de DevOps</t>
+        </is>
+      </c>
+      <c r="C223" s="21" t="inlineStr">
+        <is>
+          <t>Implemente la automatización de la zona de aterrizaje de archivos &gt; nueva &gt; para aplicaciones y cargas de trabajo.</t>
+        </is>
+      </c>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="n"/>
+      <c r="E223" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G223" s="21" t="n"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+        </is>
+      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="n"/>
+      <c r="L223" s="25" t="inlineStr">
+        <is>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+        </is>
+      </c>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="n"/>
-      <c r="B224" s="21" t="n"/>
-      <c r="C224" s="21" t="n"/>
+      <c r="A224" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B224" s="21" t="inlineStr">
+        <is>
+          <t>Ciclo de vida de desarrollo</t>
+        </is>
+      </c>
+      <c r="C224" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y la IaC desarrollada. Microsoft recomienda Git.</t>
+        </is>
+      </c>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="n"/>
+      <c r="E224" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G224" s="21" t="n"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="n"/>
+      <c r="L224" s="25" t="inlineStr">
+        <is>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+        </is>
+      </c>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="n"/>
-      <c r="B225" s="21" t="n"/>
-      <c r="C225" s="21" t="n"/>
+      <c r="A225" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B225" s="21" t="inlineStr">
+        <is>
+          <t>Ciclo de vida de desarrollo</t>
+        </is>
+      </c>
+      <c r="C225" s="21" t="inlineStr">
+        <is>
+          <t>Siga una estrategia de ramificación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
+        </is>
+      </c>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="n"/>
+      <c r="E225" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G225" s="21" t="n"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="n"/>
+      <c r="L225" s="25" t="inlineStr">
+        <is>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+        </is>
+      </c>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="n"/>
-      <c r="B226" s="21" t="n"/>
-      <c r="C226" s="21" t="n"/>
+      <c r="A226" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B226" s="21" t="inlineStr">
+        <is>
+          <t>Ciclo de vida de desarrollo</t>
+        </is>
+      </c>
+      <c r="C226" s="21" t="inlineStr">
+        <is>
+          <t>Adopte una estrategia de solicitud de incorporación de cambios para ayudar a mantener el control de los cambios de código fusionados en ramas.</t>
+        </is>
+      </c>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="n"/>
+      <c r="E226" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G226" s="21" t="n"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="n"/>
+      <c r="L226" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="n"/>
-      <c r="B227" s="21" t="n"/>
-      <c r="C227" s="21" t="n"/>
+      <c r="A227" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B227" s="21" t="inlineStr">
+        <is>
+          <t>Estrategia de desarrollo</t>
+        </is>
+      </c>
+      <c r="C227" s="21" t="inlineStr">
+        <is>
+          <t>Aproveche la infraestructura declarativa como herramientas de código, como Azure Bicep, plantillas de ARM o Terraform, para crear y mantener la arquitectura de la zona de aterrizaje de Azure. Tanto desde el punto de vista de la carga de trabajo de la plataforma como de la aplicación.</t>
+        </is>
+      </c>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="n"/>
+      <c r="E227" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G227" s="21" t="n"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="n"/>
+      <c r="L227" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas y DevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12365,7 +12631,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región primaria, ya que este servicio solo se puede proyectar en una suscripción</t>
+          <t>Al implementar Active Directory en Windows Server, use una ubicación con zonas de disponibilidad e implemente al menos dos máquinas virtuales en estas zonas. Si no está disponible, impleméntelo en un conjunto de disponibilidad</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2413,7 +2413,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server está en uso, ¿los recursos de Azure usan el controlador de dominio correcto?</t>
+          <t>Si se usan controladores de dominio, asegúrese de que los recursos estén configurados para usar el controlador de dominio correcto.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Configure la segmentación de red de identidad (ADDS) mediante el uso de una red virtual y vuelva a emparejarse con el centro. Proporcionar autenticación dentro de la zona de aterrizaje de la aplicación (heredada).</t>
+          <t>Configure la segmentación de la red de identidad mediante el uso de una red virtual y vuelva a emparejarse con el centro. Proporcionar autenticación dentro de la zona de aterrizaje de la aplicación (heredada).</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Si AD está en Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración Indentity para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Si se van a usar servidores para servicios de identidad, como controladores de dominio, establezca una suscripción de identidad dedicada en el grupo de administración de identidades para hospedar estos servicios</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, impleméntelo en un conjunto de disponibilidad.</t>
+          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5137,7 +5137,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5145,7 +5145,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
+          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5183,7 +5183,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5191,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
+          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,15 +5229,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,13 +5262,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
+          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,7 +5291,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,13 +5312,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5337,7 +5341,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5375,19 +5379,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,13 +5412,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5425,7 +5429,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5437,7 +5441,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,7 +5462,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5475,19 +5479,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5512,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5529,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
+          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,15 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5599,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5621,19 +5625,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5671,7 +5671,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5679,7 +5679,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,15 +5717,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5746,13 +5750,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5763,7 +5767,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5775,7 +5779,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5796,13 +5800,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,7 +5829,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5846,13 +5850,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5863,19 +5867,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5896,13 +5900,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5913,7 +5917,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5925,7 +5929,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5946,13 +5950,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5968,14 +5972,14 @@
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6000,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,19 +6017,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6063,19 +6067,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6112,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6120,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6141,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6167,7 +6166,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6187,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6204,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6212,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6234,7 +6233,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,14 +6250,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,7 +6278,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
+          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6296,14 +6295,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6319,12 +6318,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6341,14 +6340,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6369,13 +6373,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
+          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6386,19 +6390,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6419,7 +6423,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6441,14 +6445,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6469,7 +6473,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6491,14 +6495,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6519,7 +6523,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6548,7 +6552,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6564,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,19 +6590,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,7 +6636,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="I123" s="15" t="n"/>
@@ -6644,7 +6644,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6682,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6690,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6728,15 +6728,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6757,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6774,19 +6778,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,7 +6811,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6822,11 +6826,7 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="I127" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6836,7 +6836,7 @@
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6872,7 +6872,11 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6882,7 +6886,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
+          <t>Habilite los registros de flujo de NSG e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6925,14 +6929,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6948,12 +6952,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6970,19 +6974,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7003,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7020,19 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7053,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
+          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7077,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7098,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7116,13 +7115,18 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7160,19 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7209,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7237,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7254,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,7 +7282,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7300,14 +7299,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7328,7 +7327,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7345,14 +7344,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7373,13 +7372,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
+          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7390,14 +7389,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,17 +7407,17 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
+          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7435,14 +7434,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7462,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7480,14 +7479,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7524,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,7 +7552,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
+          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7577,7 +7576,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7597,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7621,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,13 +7642,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
+          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7660,14 +7659,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7688,13 +7687,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7705,14 +7704,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7733,10 +7732,14 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="n"/>
+          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E147" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -7750,14 +7753,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7778,14 +7781,10 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -7799,14 +7798,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,7 +7826,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7844,14 +7843,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, la iniciativa política de referencia de la política de soberanía se despliega y asigna al nivel correcto de MG.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7889,19 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7922,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, la iniciativa política de referencia de la política de soberanía se despliega y asigna al nivel correcto de MG.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, se documentan los objetivos de control soberano para el mapeo de políticas.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7939,14 +7938,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, se documentan los objetivos de control soberano para el mapeo de políticas.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, existe un proceso para el CRUD de "Objetivos de Control Soberano para el mapeo de políticas".</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7982,16 +7981,12 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
-        </is>
-      </c>
+      <c r="H152" s="15" t="n"/>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8007,18 +8002,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, existe un proceso para el CRUD de "Objetivos de Control Soberano para el mapeo de políticas".</t>
+          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8027,12 +8022,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8043,23 +8042,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8070,14 +8069,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8088,17 +8087,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
+          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8115,14 +8114,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8133,23 +8132,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8160,14 +8159,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,13 +8187,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8205,14 +8204,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8228,12 +8227,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
+          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8250,14 +8249,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8278,7 +8277,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8295,14 +8294,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8318,12 +8317,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
+          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8340,14 +8339,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8368,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8383,21 +8387,12 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H161" s="15" t="n"/>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8418,7 +8413,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8433,12 +8428,21 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="n"/>
+      <c r="H162" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8459,7 +8463,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8476,19 +8480,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8526,19 +8530,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8559,7 +8563,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8576,19 +8580,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8609,7 +8613,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8626,19 +8630,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8663,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,19 +8680,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8709,13 +8713,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8726,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8759,13 +8758,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8776,14 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8804,7 +8803,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8821,14 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8849,7 +8848,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8866,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8894,7 +8893,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8911,14 +8910,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8939,7 +8938,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8956,14 +8955,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8984,7 +8983,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9001,14 +9000,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9029,7 +9028,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9046,14 +9045,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9074,7 +9073,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9091,14 +9090,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9136,14 +9135,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9159,12 +9158,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9181,14 +9180,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9209,10 +9208,14 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9226,14 +9229,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9249,19 +9252,15 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operacional</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9275,14 +9274,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,7 +9302,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9320,14 +9319,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9365,14 +9364,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,23 +9382,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
+          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9410,14 +9409,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9438,7 +9437,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9455,14 +9454,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9483,13 +9482,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9500,14 +9499,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,17 +9517,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9545,14 +9544,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9573,7 +9572,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9590,14 +9589,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,18 +9612,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Cifrado y claves</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9635,14 +9634,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9663,13 +9662,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9680,14 +9679,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9708,7 +9707,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9725,14 +9724,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9753,7 +9752,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9777,7 +9776,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9798,7 +9797,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9822,7 +9821,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9843,7 +9842,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9867,7 +9866,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9888,7 +9887,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9912,7 +9911,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9933,7 +9932,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9950,14 +9949,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9978,7 +9977,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
+          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9995,14 +9994,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10023,7 +10022,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10040,14 +10039,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10068,7 +10067,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10085,14 +10084,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10113,7 +10112,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10137,7 +10136,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10158,7 +10157,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
+          <t>En el caso de la zona de aterrizaje soberana, use el HSM administrado de Azure Key Vault para almacenar los secretos y las credenciales.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10175,14 +10174,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,12 +10197,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la zona de aterrizaje soberana, use el HSM administrado de Azure Key Vault para almacenar los secretos y las credenciales.</t>
+          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10220,14 +10219,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10248,7 +10247,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para un almacenamiento a largo plazo superior a dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10265,14 +10264,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10293,13 +10292,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para un almacenamiento a largo plazo superior a dos años, si es necesario.</t>
+          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10310,14 +10309,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10338,7 +10337,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
+          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10355,14 +10354,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10383,7 +10382,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
+          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10400,14 +10399,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,7 +10427,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
+          <t>Habilite Endpoint Protection en servidores IaaS.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10445,14 +10444,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10473,13 +10472,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Habilite Endpoint Protection en servidores IaaS.</t>
+          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10490,14 +10489,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10535,14 +10534,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10563,7 +10562,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
+          <t>En el caso de la zona de aterrizaje soberana, los registros de transparencia están habilitados en el inquilino de Entra ID.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10580,14 +10579,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10608,7 +10607,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la zona de aterrizaje soberana, los registros de transparencia están habilitados en el inquilino de Entra ID.</t>
+          <t>En el caso de la zona de aterrizaje soberana, la caja de seguridad del cliente está habilitada en el inquilino de Entra ID.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10625,14 +10624,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10648,18 +10647,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la zona de aterrizaje soberana, la caja de seguridad del cliente está habilitada en el inquilino de Entra ID.</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10670,14 +10669,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10698,7 +10697,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10715,14 +10714,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10738,12 +10737,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Acceso privilegiado seguro</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Separe las cuentas de administrador con privilegios para las tareas administrativas de Azure.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10760,14 +10759,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10783,18 +10782,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro</t>
+          <t>Marco de habilitación de servicios</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Separe las cuentas de administrador con privilegios para las tareas administrativas de Azure.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10805,14 +10804,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10833,7 +10832,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10857,7 +10856,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10868,23 +10867,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de plataformas y DevOps</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Marco de habilitación de servicios</t>
+          <t>Topologías de equipo de DevOps</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Asegúrese de que cuenta con un equipo multifuncional de la plataforma DevOps para crear, administrar y mantener la arquitectura de la zona de aterrizaje de Azure.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10895,14 +10894,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10923,13 +10922,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que cuenta con un equipo multifuncional de la plataforma DevOps para crear, administrar y mantener la arquitectura de la zona de aterrizaje de Azure.</t>
+          <t>Trate de definir funciones para el equipo de la plataforma de zona de aterrizaje de Azure.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10940,14 +10939,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10968,7 +10967,7 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Trate de definir funciones para el equipo de la plataforma de zona de aterrizaje de Azure.</t>
+          <t>Trate de definir funciones para que los equipos de carga de trabajo de las aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -10992,7 +10991,7 @@
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11013,13 +11012,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Trate de definir funciones para que los equipos de carga de trabajo de las aplicaciones sean autosuficientes y no requieran el soporte del equipo de la plataforma DevOps. Logre esto mediante el uso del rol RBAC personalizado.</t>
+          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11030,14 +11029,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11058,13 +11057,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Use una canalización de CI/CD para implementar artefactos de IaC y garantizar la calidad de la implementación y de los entornos de Azure.</t>
+          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11075,14 +11074,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11103,13 +11102,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Incluya pruebas unitarias para IaC y código de aplicación como parte del proceso de compilación.</t>
+          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11127,7 +11126,7 @@
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11148,13 +11147,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
+          <t>Implemente la automatización de la zona de aterrizaje de archivos &gt; nueva &gt; para aplicaciones y cargas de trabajo.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11165,14 +11164,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11188,18 +11187,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>Topologías de equipo de DevOps</t>
+          <t>Ciclo de vida de desarrollo</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Implemente la automatización de la zona de aterrizaje de archivos &gt; nueva &gt; para aplicaciones y cargas de trabajo.</t>
+          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y la IaC desarrollada. Microsoft recomienda Git.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11210,14 +11209,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11238,13 +11237,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza un sistema de control de versiones para el código fuente de las aplicaciones y la IaC desarrollada. Microsoft recomienda Git.</t>
+          <t>Siga una estrategia de ramificación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11255,14 +11254,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11283,13 +11282,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Siga una estrategia de ramificación para permitir que los equipos colaboren mejor y administren de manera eficiente el control de versiones de IaC y el código de la aplicación. Revisa opciones como Github Flow.</t>
+          <t>Adopte una estrategia de solicitud de incorporación de cambios para ayudar a mantener el control de los cambios de código fusionados en ramas.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11307,7 +11306,7 @@
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11323,18 +11322,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>Ciclo de vida de desarrollo</t>
+          <t>Estrategia de desarrollo</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Adopte una estrategia de solicitud de incorporación de cambios para ayudar a mantener el control de los cambios de código fusionados en ramas.</t>
+          <t>Aproveche la infraestructura declarativa como herramientas de código, como Azure Bicep, plantillas de ARM o Terraform, para crear y mantener la arquitectura de la zona de aterrizaje de Azure. Tanto desde el punto de vista de la carga de trabajo de la plataforma como de la aplicación.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11345,14 +11344,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11368,12 +11367,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>Estrategia de desarrollo</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la infraestructura declarativa como herramientas de código, como Azure Bicep, plantillas de ARM o Terraform, para crear y mantener la arquitectura de la zona de aterrizaje de Azure. Tanto desde el punto de vista de la carga de trabajo de la plataforma como de la aplicación.</t>
+          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11390,14 +11389,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11406,45 +11405,15 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>Integrar la seguridad en el proceso ya combinado de desarrollo y operaciones en DevOps para mitigar los riesgos en el proceso de innovación.</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12631,7 +12600,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.es.xlsx
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
+          <t>Si Entra Domain Services está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace de VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resistencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
+          <t>Use puertas de enlace de VPN con redundancia de zona para conectar sucursales o ubicaciones remotas a Azure (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4870,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
+          <t>Use dispositivos VPN redundantes en las instalaciones (activo/activo o activo/pasivo).</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4887,19 +4887,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4920,13 +4920,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4937,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4949,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
+          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4987,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -4999,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión para la supervisión de la conectividad en toda la red, especialmente entre el entorno local y Azure.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5037,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5049,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
+          <t>Use el Monitor de conexión para la supervisión de la conectividad en toda la red, especialmente entre el entorno local y Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5087,7 +5087,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
@@ -5099,7 +5099,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,13 +5120,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5137,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,13 +5170,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
+          <t>Use VPN de sitio a sitio como conmutación por error de ExpressRoute, especialmente si solo usa un único circuito ExpressRoute.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5183,7 +5187,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5195,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5211,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
+          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,19 +5233,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5257,18 +5257,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
+          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5279,19 +5279,15 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5312,7 +5308,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5341,7 +5337,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5362,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5379,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5412,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5429,19 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5462,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,19 +5475,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,13 +5508,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
+          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5532,12 +5528,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I100" s="15" t="n"/>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5603,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5625,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5633,7 +5633,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5649,18 +5649,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5671,15 +5671,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5704,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,19 +5721,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5767,19 +5767,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5800,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5817,7 +5813,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5829,7 +5825,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5850,7 +5846,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5867,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5900,7 +5896,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5917,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5967,19 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,13 +5996,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6017,19 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6050,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
+          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6067,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6112,15 +6113,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6158,7 +6163,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6166,7 +6171,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6187,7 +6192,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6204,7 +6209,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6212,7 +6217,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6233,7 +6238,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
+          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y Denegación para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6250,14 +6255,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6295,14 +6300,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6318,12 +6323,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
+          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6340,19 +6345,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6368,18 +6368,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
+          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán configuraciones de acceso explícitas</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6390,19 +6390,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,13 +6419,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6440,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,7 +6469,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6495,14 +6491,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,7 +6519,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6545,14 +6541,14 @@
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6568,18 +6564,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6590,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6614,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6636,15 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6669,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6686,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6694,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,13 +6715,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6728,19 +6732,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6778,19 +6778,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6811,7 +6806,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6826,17 +6821,21 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6856,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
+          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6874,7 +6873,7 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6886,7 +6885,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6907,7 +6906,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6922,21 +6921,17 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6952,12 +6947,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6974,19 +6969,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7002,12 +6997,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
+          <t>Habilite los registros de flujo de red virtual e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7024,14 +7019,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7052,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7069,14 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
+          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7115,18 +7120,13 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7147,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,14 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
+          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7209,14 +7209,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7237,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7254,14 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7282,7 +7287,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7299,14 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7327,7 +7332,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7344,14 +7349,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,13 +7377,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
+          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7389,14 +7394,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7407,23 +7412,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7434,14 +7439,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7452,23 +7457,23 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
+          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7479,14 +7484,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7507,13 +7512,13 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
+          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7531,7 +7536,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7552,7 +7557,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7569,14 +7574,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7597,7 +7602,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7621,7 +7626,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7642,13 +7647,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
+          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7659,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7687,7 +7692,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto y adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7711,7 +7716,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7732,17 +7737,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Uso de Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7753,14 +7754,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7781,7 +7782,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7805,7 +7806,7 @@
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7826,10 +7827,14 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="n"/>
+          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -7843,19 +7848,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, la iniciativa política de referencia de la política de soberanía se despliega y asigna al nivel correcto de MG.</t>
+          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7893,14 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, se documentan los objetivos de control soberano para el mapeo de políticas.</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,14 +7938,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, existe un proceso para el CRUD de "Objetivos de Control Soberano para el mapeo de políticas".</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, la iniciativa política de referencia de la política de soberanía se despliega y asigna al nivel correcto de MG.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7981,12 +7986,16 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,18 +8011,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Optimice su inversión en la nube</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, se documentan los objetivos de control soberano para el mapeo de políticas.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8024,14 +8033,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8042,17 +8051,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, existe un proceso para el CRUD de "Objetivos de Control Soberano para el mapeo de políticas".</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8067,16 +8076,12 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
-        </is>
-      </c>
+      <c r="H154" s="15" t="n"/>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,13 +8102,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
+          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8114,14 +8119,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8132,23 +8137,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8159,14 +8164,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8177,17 +8182,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Optimice su inversión en la nube</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
+          <t>Configure alertas de presupuesto "real" y "pronosticado".</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8204,14 +8209,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,18 +8232,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8249,14 +8254,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8272,12 +8277,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
+          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8294,14 +8299,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8322,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Considere la posibilidad de replicar entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8344,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8387,12 +8387,16 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="n"/>
+      <c r="H161" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8413,7 +8417,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
+          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8430,19 +8434,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Asegúrese de que la zona de aterrizaje esté documentada.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8478,21 +8482,12 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="H163" s="15" t="n"/>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8513,7 +8508,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
+          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8530,19 +8525,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8563,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8580,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la política ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8630,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8663,7 +8658,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8680,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8713,13 +8708,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8730,14 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8803,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8848,7 +8853,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Incluya eventos de estado de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8865,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8893,7 +8898,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
+          <t>Incluya alertas y grupos de acciones como parte de la plataforma Azure Service Health para asegurarse de que se pueden realizar las alertas o los problemas</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8910,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,7 +8943,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8955,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,7 +8988,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
+          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9000,14 +9005,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,7 +9033,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9045,14 +9050,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,7 +9078,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento de registros de la extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9090,14 +9095,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,7 +9123,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9135,14 +9140,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9158,12 +9163,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operacional</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9180,14 +9185,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9203,19 +9208,15 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Cumplimiento operacional</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Tenga en cuenta las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9229,14 +9230,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,12 +9253,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9274,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,15 +9298,19 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Proteger y recuperar</t>
+          <t>Cumplimiento operacional</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9319,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9364,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9382,23 +9387,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9409,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9427,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Tolerancia a fallos</t>
+          <t>Proteger y recuperar</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9454,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,13 +9487,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
+          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9499,14 +9504,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9517,23 +9522,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9544,14 +9549,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9562,17 +9567,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Tolerancia a fallos</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9589,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,18 +9617,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9634,14 +9639,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9657,12 +9662,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Cifrado y claves</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9679,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,13 +9712,13 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9724,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9752,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
+          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9769,14 +9774,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9797,7 +9802,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9821,7 +9826,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9866,7 +9871,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9887,7 +9892,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9911,7 +9916,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,7 +9937,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
+          <t>Establezca un proceso automatizado para la ro